--- a/Team_3_UCID_Itteration2Update.xlsx
+++ b/Team_3_UCID_Itteration2Update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hediemoradi/Repos/SE-1-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D8544F-CFA5-E545-9BB0-09FA6F0FE1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDFC77AB-BC2D-614F-B06F-432ADD6360CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="700" windowWidth="28360" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="700" windowWidth="16400" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="140">
   <si>
     <t>Function Name</t>
   </si>
@@ -113,17 +115,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-First name
-Last name
-Phone
-Email
-Password
-Address
-Payment information
-</t>
-  </si>
-  <si>
     <t>The System User indicates that he wants to modify the System User profile while viewing it. This function is performed after performing the View Profile function. The output is updated after a confirmation message.</t>
   </si>
   <si>
@@ -138,58 +129,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-None</t>
-  </si>
-  <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>View Available Vehicles</t>
   </si>
   <si>
     <t>Vending Manager</t>
   </si>
   <si>
-    <t xml:space="preserve">This function provides a list of vehicles available for next day sorted by location(ASC). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Operators Names                           
-Vehicle Name                                 
-Vehicle Type                                   
-Location ID                                    
-Ending Time
-</t>
-  </si>
-  <si>
-    <t>This function provides details of vehicle operator including his name, vehicle type, location Id, name and end time of vehicle assigned to the operator</t>
-  </si>
-  <si>
     <t>Assign Location</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Vehicle name 
-Location ID  
-Date (default to next day)
-</t>
-  </si>
-  <si>
-    <t>The System User assigns a location to the vehicle for the next day with the confirmation message.</t>
-  </si>
-  <si>
     <t>Assign Operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Vehicle Name                                       
-Operator Name                                            
-Time Duration (default to entire next day)
-</t>
-  </si>
-  <si>
-    <t>The System user assigns operator to the vending vehicle for the entire next day. Assignment is successfully executed with a confirmation message</t>
   </si>
   <si>
     <t xml:space="preserve">Student/ Staff/ Faculty/non-student, </t>
@@ -210,44 +159,10 @@
     <t xml:space="preserve">Checkout </t>
   </si>
   <si>
-    <t>Payment summary
-Item name
-Quantity
-Total cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-User can review the order. If the payment methods is not added during the registration, user is prompted to add payment information. The user can place the order and successful message will be displayed. 
-</t>
-  </si>
-  <si>
-    <t>Add Payment Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Name On Card 
-Card Number 
-CVV
-Expiration date
-</t>
-  </si>
-  <si>
     <t>Vending Operator</t>
   </si>
   <si>
     <t>This function provides the schedule and location of vending operator for current day.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Operator's Name                            
-Vehicle Name                                
-Vehicle Type                                   
-Location ID                                     
-Ending Time
-</t>
-  </si>
-  <si>
-    <t>No input is required because the System User selects this function after viewing a specific vehicle. Data shown as output is updated after system user confirms the save of modified data.</t>
   </si>
   <si>
     <t xml:space="preserve">Location ID, 
@@ -274,26 +189,10 @@
     <t>Accessable from all screens(not login or registration)</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Item Name                                      
-Item Type                                        
-Quantity 
-Cost (idv)
-Total cost   
-                           </t>
-  </si>
-  <si>
     <t>Checkout screen</t>
   </si>
   <si>
     <t>Payment screen</t>
-  </si>
-  <si>
-    <t>This function is performed after checkout, if payment method is not added. User can successfully add the card to the specific User profile. Then user can purchase an item. Order conformation number will be given to the user.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify operator screen
-Manger can also navigate back to the home screen </t>
   </si>
   <si>
     <t xml:space="preserve">Modify location screen
@@ -304,29 +203,6 @@
   </si>
   <si>
     <t>View Inventory</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">View Operator screen
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF262626"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>User may also navigate back to Home screen</t>
-    </r>
-  </si>
-  <si>
-    <t>View Assign screen. 
-User may also navigate back to Home screen</t>
-  </si>
-  <si>
-    <t>View Assign screen.
-User may also navigate back to  Home screen</t>
   </si>
   <si>
     <t>Application Sign Up/ registration Screen</t>
@@ -500,11 +376,6 @@
     <t>View Operator</t>
   </si>
   <si>
-    <t xml:space="preserve">
-This function provides a list of vehicle, locations, ending time, and  operator name. This list has selectable options to show inventory for each vehicle.
-</t>
-  </si>
-  <si>
     <t>View/ Modify Vehicle Inventory</t>
   </si>
   <si>
@@ -568,11 +439,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-View Vehicle Revenue
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">View Vehicle Revenue Screen </t>
   </si>
   <si>
@@ -585,9 +451,6 @@
   </si>
   <si>
     <t xml:space="preserve">View vehicle Revenue screem. User can navigate back to home screen with using bottom navigation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This function provides the revenue per each vehicle as well as sum of all revenues from all vehicles. </t>
   </si>
   <si>
     <t>View Location</t>
@@ -646,6 +509,153 @@
     <t>NOTE: To address all comments and feedbacks which our team received after Iteration 1, we decided to shuffle our UCID and do our best to match all the wordings,
 functions, and attributes with other documents. With these changes, we are hoping to provide clarity for you and limit any further confusion. Therefore, since most of the rows have been effected
 we decided to provide this note instead of highlighting everything and kindly ask you to review them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+User can review the order. This screen will guide the user to the payment screen by default to finish the order. If the user wishes to change the order he needs to navigate back to cart.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Cart Summary:                                      
+Item Type                                        
+Quantity 
+Cost (idv)
+Total cost   
+                           </t>
+  </si>
+  <si>
+    <t>Payment Summary:
+Item(s) name
+Quantity(s)
+Total cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Card Summary:
+Name On Card 
+Card Number 
+CVV
+Expiration date
+</t>
+  </si>
+  <si>
+    <t>Add/ Modify Card Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This function is performed after checkout. If the payment methods is not added in profile, user is prompted to add payment information. If the card information has been already added, we will propmt the user to conform the card or modify it as they want. Then user can complete his purchase. Order conformation number will be given to the user after the payment is done. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+First name
+Last name
+Phone
+Email
+Address
+Card/ Payment information
+</t>
+  </si>
+  <si>
+    <t>Assign Vehicles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+View Vehicles Revenue
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Operators Names                           
+Vehicle Name                                 
+Location                                    
+Slot Begin
+Slot End
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">View Operator screen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>User may also navigate back to Home screen from bottom navigation</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This function provides details of vehicle and the assign operator to it. It includs operator name, vehicle type, location, begin and end time of vehicle. Manager can uodate the vehicle assigned to the operator from here. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Vehicle Name                       
+Vehicle ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+None- Date (default to next day)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Location ID  
+Location Address
+Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+None- Date (default to entire next day)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Operator ID
+Operator Name
+</t>
+  </si>
+  <si>
+    <t>Assign Time Slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start time (Slot Begin)
+End time (Slot End)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assign screen.
+User may also navigate back to  Home screen from bottom navigation</t>
+  </si>
+  <si>
+    <t>Assign screen. 
+User may also navigate back to Home screen  from bottom navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assign screen. 
+User may also navigate back to Home screen  from bottom navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This function provides a list of vehicles available for next day sorted by ID (ASC). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This function provides a list of Locations available for next day sorted by ID (ASC). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This function provides a list of operators available for next day sorted by ID (ASC). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This function provides a list of availible time slots for next day sorted by time (ASC). </t>
+  </si>
+  <si>
+    <t>This function provides the revenue per each vehicle as well as sum of all revenues from all vehicles. Sorted by vehicle ID (ASC) in database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+This function provides a list of vehicle, locations, ending time, and  operator name. This list has selectable options to show inventory for each vehicle. Sorted by vehicle ID (ASC) from data base. 
+</t>
   </si>
 </sst>
 </file>
@@ -1485,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="50" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -1506,7 +1516,7 @@
   <sheetData>
     <row r="1" spans="1:1025" s="60" customFormat="1" ht="102" customHeight="1">
       <c r="A1" s="59" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:1025" s="51" customFormat="1" ht="48">
@@ -1521,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="F2" s="57" t="s">
         <v>3</v>
@@ -2561,19 +2571,19 @@
         <v>7</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1025" ht="95">
@@ -2587,7 +2597,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>11</v>
@@ -2596,10 +2606,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1025" ht="95">
@@ -2607,25 +2617,25 @@
         <v>2.1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:1025" ht="76">
@@ -2648,10 +2658,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1025" ht="190">
@@ -2665,7 +2675,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>8</v>
@@ -2674,13 +2684,13 @@
         <v>18</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" ht="171">
+    <row r="8" spans="1:1025" ht="152">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -2691,19 +2701,19 @@
         <v>13</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:1025" s="6" customFormat="1" ht="133">
@@ -2711,25 +2721,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>25</v>
-      </c>
       <c r="G9" s="32" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -3754,25 +3764,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -4797,25 +4807,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -5840,25 +5850,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -6878,30 +6888,30 @@
       <c r="AMJ12" s="5"/>
       <c r="AMK12" s="5"/>
     </row>
-    <row r="13" spans="1:1025" s="6" customFormat="1" ht="114">
+    <row r="13" spans="1:1025" s="6" customFormat="1" ht="95">
       <c r="A13" s="13">
         <v>10</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -7921,30 +7931,30 @@
       <c r="AMJ13" s="5"/>
       <c r="AMK13" s="5"/>
     </row>
-    <row r="14" spans="1:1025" s="6" customFormat="1" ht="114">
+    <row r="14" spans="1:1025" s="6" customFormat="1" ht="133">
       <c r="A14" s="13">
         <v>11</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -8969,25 +8979,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -10012,25 +10022,25 @@
         <v>13</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -11050,30 +11060,30 @@
       <c r="AMJ16" s="8"/>
       <c r="AMK16" s="8"/>
     </row>
-    <row r="17" spans="1:1025" s="9" customFormat="1" ht="133">
+    <row r="17" spans="1:1025" s="9" customFormat="1" ht="114">
       <c r="A17" s="13">
         <v>14</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -12093,30 +12103,30 @@
       <c r="AMJ17" s="8"/>
       <c r="AMK17" s="8"/>
     </row>
-    <row r="18" spans="1:1025" s="9" customFormat="1" ht="190">
+    <row r="18" spans="1:1025" s="9" customFormat="1" ht="57">
       <c r="A18" s="13">
         <v>15</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" s="42" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -13136,30 +13146,30 @@
       <c r="AMJ18" s="8"/>
       <c r="AMK18" s="8"/>
     </row>
-    <row r="19" spans="1:1025" s="9" customFormat="1" ht="133">
+    <row r="19" spans="1:1025" s="9" customFormat="1" ht="76">
       <c r="A19" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -14179,30 +14189,30 @@
       <c r="AMJ19" s="8"/>
       <c r="AMK19" s="8"/>
     </row>
-    <row r="20" spans="1:1025" s="9" customFormat="1" ht="95">
+    <row r="20" spans="1:1025" s="9" customFormat="1" ht="76">
       <c r="A20" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
-      <c r="D20" s="42" t="s">
-        <v>55</v>
+      <c r="D20" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>67</v>
+      <c r="G20" s="33" t="s">
+        <v>132</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -15222,30 +15232,30 @@
       <c r="AMJ20" s="8"/>
       <c r="AMK20" s="8"/>
     </row>
-    <row r="21" spans="1:1025" s="9" customFormat="1" ht="114">
+    <row r="21" spans="1:1025" s="9" customFormat="1" ht="57">
       <c r="A21" s="13">
         <v>18</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -16267,28 +16277,28 @@
     </row>
     <row r="22" spans="1:1025" s="9" customFormat="1" ht="133">
       <c r="A22" s="13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -17313,25 +17323,25 @@
         <v>20</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -18356,25 +18366,25 @@
         <v>21</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -19399,25 +19409,25 @@
         <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -20437,30 +20447,30 @@
       <c r="AMJ25" s="11"/>
       <c r="AMK25" s="11"/>
     </row>
-    <row r="26" spans="1:1025" s="12" customFormat="1" ht="133">
+    <row r="26" spans="1:1025" s="12" customFormat="1" ht="114">
       <c r="A26" s="13">
         <v>23</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>

--- a/Team_3_UCID_Itteration2Update.xlsx
+++ b/Team_3_UCID_Itteration2Update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hediemoradi/Repos/SE-1-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDFC77AB-BC2D-614F-B06F-432ADD6360CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7418BBB2-FFF3-D44D-8D4D-FCDA34990FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="700" windowWidth="16400" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15200" yWindow="1000" windowWidth="13440" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="145">
   <si>
     <t>Function Name</t>
   </si>
@@ -484,9 +484,6 @@
     <t xml:space="preserve">This function provides modify option for each selected location.  If any data has been changed by the user, the system will show a success toast to inform user that the update has been successful.  </t>
   </si>
   <si>
-    <t>Forget Password</t>
-  </si>
-  <si>
     <t>LogIn screen</t>
   </si>
   <si>
@@ -523,12 +520,6 @@
 Cost (idv)
 Total cost   
                            </t>
-  </si>
-  <si>
-    <t>Payment Summary:
-Item(s) name
-Quantity(s)
-Total cost</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -657,6 +648,36 @@
 This function provides a list of vehicle, locations, ending time, and  operator name. This list has selectable options to show inventory for each vehicle. Sorted by vehicle ID (ASC) from data base. 
 </t>
   </si>
+  <si>
+    <t>Payment Summary:
+Item(s) Type
+Quantity(s)
+Total cost</t>
+  </si>
+  <si>
+    <t>Forget (Reset)  Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify Operator
+</t>
+  </si>
+  <si>
+    <t>View Operator Screen</t>
+  </si>
+  <si>
+    <t>Operator First Name
+Operator Last Name
+Vehicle Name
+Location
+Slot Ent</t>
+  </si>
+  <si>
+    <t>Modify operator screen
+User may also navigate back to Home screen from bottom navigation</t>
+  </si>
+  <si>
+    <t>This fuction provides the user to modify the assigned vehicle to the operator. The manager can see the list of availible vehicles from the drop down menue (sorted by vehcile id (ASC)). After the update is done the system will display a success toast message to the user and goes to view operator screen.</t>
+  </si>
 </sst>
 </file>
 
@@ -674,7 +695,6 @@
       <sz val="12"/>
       <color rgb="FF262626"/>
       <name val="Montserrat Medium"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1493,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK79"/>
+  <dimension ref="A1:AMK80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="50" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="H19" zoomScale="84" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -1516,7 +1536,7 @@
   <sheetData>
     <row r="1" spans="1:1025" s="60" customFormat="1" ht="102" customHeight="1">
       <c r="A1" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1025" s="51" customFormat="1" ht="48">
@@ -1531,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="57" t="s">
         <v>3</v>
@@ -2617,25 +2637,25 @@
         <v>2.1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:1025" ht="76">
@@ -2707,7 +2727,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G8" s="32" t="s">
         <v>74</v>
@@ -5862,7 +5882,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G12" s="32" t="s">
         <v>65</v>
@@ -6905,13 +6925,13 @@
         <v>25</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>67</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -7936,7 +7956,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C14" s="45" t="s">
         <v>29</v>
@@ -7945,7 +7965,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>25</v>
@@ -7954,7 +7974,7 @@
         <v>66</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -8997,7 +9017,7 @@
         <v>70</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -10017,7 +10037,7 @@
       <c r="AMJ15" s="8"/>
       <c r="AMK15" s="8"/>
     </row>
-    <row r="16" spans="1:1025" s="9" customFormat="1" ht="133">
+    <row r="16" spans="1:1025" s="9" customFormat="1" ht="114">
       <c r="A16" s="13">
         <v>13</v>
       </c>
@@ -11065,7 +11085,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>26</v>
@@ -11083,7 +11103,7 @@
         <v>95</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -12108,7 +12128,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>26</v>
@@ -12120,13 +12140,13 @@
         <v>72</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -13160,16 +13180,16 @@
         <v>39</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -14203,16 +14223,16 @@
         <v>39</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -15237,7 +15257,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>26</v>
@@ -15246,16 +15266,16 @@
         <v>39</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -16292,13 +16312,13 @@
         <v>25</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -17318,30 +17338,28 @@
       <c r="AMJ22" s="8"/>
       <c r="AMK22" s="8"/>
     </row>
-    <row r="23" spans="1:1025" s="9" customFormat="1" ht="76">
-      <c r="A23" s="13">
-        <v>20</v>
-      </c>
+    <row r="23" spans="1:1025" s="9" customFormat="1" ht="95">
+      <c r="A23" s="13"/>
       <c r="B23" s="21" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -18363,28 +18381,28 @@
     </row>
     <row r="24" spans="1:1025" s="9" customFormat="1" ht="76">
       <c r="A24" s="13">
-        <v>21</v>
+        <v>20</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>96</v>
+      <c r="B24" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="C24" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="H24" s="39" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -19404,1073 +19422,1073 @@
       <c r="AMJ24" s="8"/>
       <c r="AMK24" s="8"/>
     </row>
-    <row r="25" spans="1:1025" s="12" customFormat="1" ht="152">
+    <row r="25" spans="1:1025" s="9" customFormat="1" ht="76">
       <c r="A25" s="13">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="B25" s="19" t="s">
-        <v>79</v>
+      <c r="B25" s="18" t="s">
+        <v>96</v>
       </c>
-      <c r="C25" s="47" t="s">
-        <v>34</v>
+      <c r="C25" s="46" t="s">
+        <v>26</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="8"/>
+      <c r="AP25" s="8"/>
+      <c r="AQ25" s="8"/>
+      <c r="AR25" s="8"/>
+      <c r="AS25" s="8"/>
+      <c r="AT25" s="8"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="8"/>
+      <c r="AW25" s="8"/>
+      <c r="AX25" s="8"/>
+      <c r="AY25" s="8"/>
+      <c r="AZ25" s="8"/>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="8"/>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="8"/>
+      <c r="BE25" s="8"/>
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="8"/>
+      <c r="BH25" s="8"/>
+      <c r="BI25" s="8"/>
+      <c r="BJ25" s="8"/>
+      <c r="BK25" s="8"/>
+      <c r="BL25" s="8"/>
+      <c r="BM25" s="8"/>
+      <c r="BN25" s="8"/>
+      <c r="BO25" s="8"/>
+      <c r="BP25" s="8"/>
+      <c r="BQ25" s="8"/>
+      <c r="BR25" s="8"/>
+      <c r="BS25" s="8"/>
+      <c r="BT25" s="8"/>
+      <c r="BU25" s="8"/>
+      <c r="BV25" s="8"/>
+      <c r="BW25" s="8"/>
+      <c r="BX25" s="8"/>
+      <c r="BY25" s="8"/>
+      <c r="BZ25" s="8"/>
+      <c r="CA25" s="8"/>
+      <c r="CB25" s="8"/>
+      <c r="CC25" s="8"/>
+      <c r="CD25" s="8"/>
+      <c r="CE25" s="8"/>
+      <c r="CF25" s="8"/>
+      <c r="CG25" s="8"/>
+      <c r="CH25" s="8"/>
+      <c r="CI25" s="8"/>
+      <c r="CJ25" s="8"/>
+      <c r="CK25" s="8"/>
+      <c r="CL25" s="8"/>
+      <c r="CM25" s="8"/>
+      <c r="CN25" s="8"/>
+      <c r="CO25" s="8"/>
+      <c r="CP25" s="8"/>
+      <c r="CQ25" s="8"/>
+      <c r="CR25" s="8"/>
+      <c r="CS25" s="8"/>
+      <c r="CT25" s="8"/>
+      <c r="CU25" s="8"/>
+      <c r="CV25" s="8"/>
+      <c r="CW25" s="8"/>
+      <c r="CX25" s="8"/>
+      <c r="CY25" s="8"/>
+      <c r="CZ25" s="8"/>
+      <c r="DA25" s="8"/>
+      <c r="DB25" s="8"/>
+      <c r="DC25" s="8"/>
+      <c r="DD25" s="8"/>
+      <c r="DE25" s="8"/>
+      <c r="DF25" s="8"/>
+      <c r="DG25" s="8"/>
+      <c r="DH25" s="8"/>
+      <c r="DI25" s="8"/>
+      <c r="DJ25" s="8"/>
+      <c r="DK25" s="8"/>
+      <c r="DL25" s="8"/>
+      <c r="DM25" s="8"/>
+      <c r="DN25" s="8"/>
+      <c r="DO25" s="8"/>
+      <c r="DP25" s="8"/>
+      <c r="DQ25" s="8"/>
+      <c r="DR25" s="8"/>
+      <c r="DS25" s="8"/>
+      <c r="DT25" s="8"/>
+      <c r="DU25" s="8"/>
+      <c r="DV25" s="8"/>
+      <c r="DW25" s="8"/>
+      <c r="DX25" s="8"/>
+      <c r="DY25" s="8"/>
+      <c r="DZ25" s="8"/>
+      <c r="EA25" s="8"/>
+      <c r="EB25" s="8"/>
+      <c r="EC25" s="8"/>
+      <c r="ED25" s="8"/>
+      <c r="EE25" s="8"/>
+      <c r="EF25" s="8"/>
+      <c r="EG25" s="8"/>
+      <c r="EH25" s="8"/>
+      <c r="EI25" s="8"/>
+      <c r="EJ25" s="8"/>
+      <c r="EK25" s="8"/>
+      <c r="EL25" s="8"/>
+      <c r="EM25" s="8"/>
+      <c r="EN25" s="8"/>
+      <c r="EO25" s="8"/>
+      <c r="EP25" s="8"/>
+      <c r="EQ25" s="8"/>
+      <c r="ER25" s="8"/>
+      <c r="ES25" s="8"/>
+      <c r="ET25" s="8"/>
+      <c r="EU25" s="8"/>
+      <c r="EV25" s="8"/>
+      <c r="EW25" s="8"/>
+      <c r="EX25" s="8"/>
+      <c r="EY25" s="8"/>
+      <c r="EZ25" s="8"/>
+      <c r="FA25" s="8"/>
+      <c r="FB25" s="8"/>
+      <c r="FC25" s="8"/>
+      <c r="FD25" s="8"/>
+      <c r="FE25" s="8"/>
+      <c r="FF25" s="8"/>
+      <c r="FG25" s="8"/>
+      <c r="FH25" s="8"/>
+      <c r="FI25" s="8"/>
+      <c r="FJ25" s="8"/>
+      <c r="FK25" s="8"/>
+      <c r="FL25" s="8"/>
+      <c r="FM25" s="8"/>
+      <c r="FN25" s="8"/>
+      <c r="FO25" s="8"/>
+      <c r="FP25" s="8"/>
+      <c r="FQ25" s="8"/>
+      <c r="FR25" s="8"/>
+      <c r="FS25" s="8"/>
+      <c r="FT25" s="8"/>
+      <c r="FU25" s="8"/>
+      <c r="FV25" s="8"/>
+      <c r="FW25" s="8"/>
+      <c r="FX25" s="8"/>
+      <c r="FY25" s="8"/>
+      <c r="FZ25" s="8"/>
+      <c r="GA25" s="8"/>
+      <c r="GB25" s="8"/>
+      <c r="GC25" s="8"/>
+      <c r="GD25" s="8"/>
+      <c r="GE25" s="8"/>
+      <c r="GF25" s="8"/>
+      <c r="GG25" s="8"/>
+      <c r="GH25" s="8"/>
+      <c r="GI25" s="8"/>
+      <c r="GJ25" s="8"/>
+      <c r="GK25" s="8"/>
+      <c r="GL25" s="8"/>
+      <c r="GM25" s="8"/>
+      <c r="GN25" s="8"/>
+      <c r="GO25" s="8"/>
+      <c r="GP25" s="8"/>
+      <c r="GQ25" s="8"/>
+      <c r="GR25" s="8"/>
+      <c r="GS25" s="8"/>
+      <c r="GT25" s="8"/>
+      <c r="GU25" s="8"/>
+      <c r="GV25" s="8"/>
+      <c r="GW25" s="8"/>
+      <c r="GX25" s="8"/>
+      <c r="GY25" s="8"/>
+      <c r="GZ25" s="8"/>
+      <c r="HA25" s="8"/>
+      <c r="HB25" s="8"/>
+      <c r="HC25" s="8"/>
+      <c r="HD25" s="8"/>
+      <c r="HE25" s="8"/>
+      <c r="HF25" s="8"/>
+      <c r="HG25" s="8"/>
+      <c r="HH25" s="8"/>
+      <c r="HI25" s="8"/>
+      <c r="HJ25" s="8"/>
+      <c r="HK25" s="8"/>
+      <c r="HL25" s="8"/>
+      <c r="HM25" s="8"/>
+      <c r="HN25" s="8"/>
+      <c r="HO25" s="8"/>
+      <c r="HP25" s="8"/>
+      <c r="HQ25" s="8"/>
+      <c r="HR25" s="8"/>
+      <c r="HS25" s="8"/>
+      <c r="HT25" s="8"/>
+      <c r="HU25" s="8"/>
+      <c r="HV25" s="8"/>
+      <c r="HW25" s="8"/>
+      <c r="HX25" s="8"/>
+      <c r="HY25" s="8"/>
+      <c r="HZ25" s="8"/>
+      <c r="IA25" s="8"/>
+      <c r="IB25" s="8"/>
+      <c r="IC25" s="8"/>
+      <c r="ID25" s="8"/>
+      <c r="IE25" s="8"/>
+      <c r="IF25" s="8"/>
+      <c r="IG25" s="8"/>
+      <c r="IH25" s="8"/>
+      <c r="II25" s="8"/>
+      <c r="IJ25" s="8"/>
+      <c r="IK25" s="8"/>
+      <c r="IL25" s="8"/>
+      <c r="IM25" s="8"/>
+      <c r="IN25" s="8"/>
+      <c r="IO25" s="8"/>
+      <c r="IP25" s="8"/>
+      <c r="IQ25" s="8"/>
+      <c r="IR25" s="8"/>
+      <c r="IS25" s="8"/>
+      <c r="IT25" s="8"/>
+      <c r="IU25" s="8"/>
+      <c r="IV25" s="8"/>
+      <c r="IW25" s="8"/>
+      <c r="IX25" s="8"/>
+      <c r="IY25" s="8"/>
+      <c r="IZ25" s="8"/>
+      <c r="JA25" s="8"/>
+      <c r="JB25" s="8"/>
+      <c r="JC25" s="8"/>
+      <c r="JD25" s="8"/>
+      <c r="JE25" s="8"/>
+      <c r="JF25" s="8"/>
+      <c r="JG25" s="8"/>
+      <c r="JH25" s="8"/>
+      <c r="JI25" s="8"/>
+      <c r="JJ25" s="8"/>
+      <c r="JK25" s="8"/>
+      <c r="JL25" s="8"/>
+      <c r="JM25" s="8"/>
+      <c r="JN25" s="8"/>
+      <c r="JO25" s="8"/>
+      <c r="JP25" s="8"/>
+      <c r="JQ25" s="8"/>
+      <c r="JR25" s="8"/>
+      <c r="JS25" s="8"/>
+      <c r="JT25" s="8"/>
+      <c r="JU25" s="8"/>
+      <c r="JV25" s="8"/>
+      <c r="JW25" s="8"/>
+      <c r="JX25" s="8"/>
+      <c r="JY25" s="8"/>
+      <c r="JZ25" s="8"/>
+      <c r="KA25" s="8"/>
+      <c r="KB25" s="8"/>
+      <c r="KC25" s="8"/>
+      <c r="KD25" s="8"/>
+      <c r="KE25" s="8"/>
+      <c r="KF25" s="8"/>
+      <c r="KG25" s="8"/>
+      <c r="KH25" s="8"/>
+      <c r="KI25" s="8"/>
+      <c r="KJ25" s="8"/>
+      <c r="KK25" s="8"/>
+      <c r="KL25" s="8"/>
+      <c r="KM25" s="8"/>
+      <c r="KN25" s="8"/>
+      <c r="KO25" s="8"/>
+      <c r="KP25" s="8"/>
+      <c r="KQ25" s="8"/>
+      <c r="KR25" s="8"/>
+      <c r="KS25" s="8"/>
+      <c r="KT25" s="8"/>
+      <c r="KU25" s="8"/>
+      <c r="KV25" s="8"/>
+      <c r="KW25" s="8"/>
+      <c r="KX25" s="8"/>
+      <c r="KY25" s="8"/>
+      <c r="KZ25" s="8"/>
+      <c r="LA25" s="8"/>
+      <c r="LB25" s="8"/>
+      <c r="LC25" s="8"/>
+      <c r="LD25" s="8"/>
+      <c r="LE25" s="8"/>
+      <c r="LF25" s="8"/>
+      <c r="LG25" s="8"/>
+      <c r="LH25" s="8"/>
+      <c r="LI25" s="8"/>
+      <c r="LJ25" s="8"/>
+      <c r="LK25" s="8"/>
+      <c r="LL25" s="8"/>
+      <c r="LM25" s="8"/>
+      <c r="LN25" s="8"/>
+      <c r="LO25" s="8"/>
+      <c r="LP25" s="8"/>
+      <c r="LQ25" s="8"/>
+      <c r="LR25" s="8"/>
+      <c r="LS25" s="8"/>
+      <c r="LT25" s="8"/>
+      <c r="LU25" s="8"/>
+      <c r="LV25" s="8"/>
+      <c r="LW25" s="8"/>
+      <c r="LX25" s="8"/>
+      <c r="LY25" s="8"/>
+      <c r="LZ25" s="8"/>
+      <c r="MA25" s="8"/>
+      <c r="MB25" s="8"/>
+      <c r="MC25" s="8"/>
+      <c r="MD25" s="8"/>
+      <c r="ME25" s="8"/>
+      <c r="MF25" s="8"/>
+      <c r="MG25" s="8"/>
+      <c r="MH25" s="8"/>
+      <c r="MI25" s="8"/>
+      <c r="MJ25" s="8"/>
+      <c r="MK25" s="8"/>
+      <c r="ML25" s="8"/>
+      <c r="MM25" s="8"/>
+      <c r="MN25" s="8"/>
+      <c r="MO25" s="8"/>
+      <c r="MP25" s="8"/>
+      <c r="MQ25" s="8"/>
+      <c r="MR25" s="8"/>
+      <c r="MS25" s="8"/>
+      <c r="MT25" s="8"/>
+      <c r="MU25" s="8"/>
+      <c r="MV25" s="8"/>
+      <c r="MW25" s="8"/>
+      <c r="MX25" s="8"/>
+      <c r="MY25" s="8"/>
+      <c r="MZ25" s="8"/>
+      <c r="NA25" s="8"/>
+      <c r="NB25" s="8"/>
+      <c r="NC25" s="8"/>
+      <c r="ND25" s="8"/>
+      <c r="NE25" s="8"/>
+      <c r="NF25" s="8"/>
+      <c r="NG25" s="8"/>
+      <c r="NH25" s="8"/>
+      <c r="NI25" s="8"/>
+      <c r="NJ25" s="8"/>
+      <c r="NK25" s="8"/>
+      <c r="NL25" s="8"/>
+      <c r="NM25" s="8"/>
+      <c r="NN25" s="8"/>
+      <c r="NO25" s="8"/>
+      <c r="NP25" s="8"/>
+      <c r="NQ25" s="8"/>
+      <c r="NR25" s="8"/>
+      <c r="NS25" s="8"/>
+      <c r="NT25" s="8"/>
+      <c r="NU25" s="8"/>
+      <c r="NV25" s="8"/>
+      <c r="NW25" s="8"/>
+      <c r="NX25" s="8"/>
+      <c r="NY25" s="8"/>
+      <c r="NZ25" s="8"/>
+      <c r="OA25" s="8"/>
+      <c r="OB25" s="8"/>
+      <c r="OC25" s="8"/>
+      <c r="OD25" s="8"/>
+      <c r="OE25" s="8"/>
+      <c r="OF25" s="8"/>
+      <c r="OG25" s="8"/>
+      <c r="OH25" s="8"/>
+      <c r="OI25" s="8"/>
+      <c r="OJ25" s="8"/>
+      <c r="OK25" s="8"/>
+      <c r="OL25" s="8"/>
+      <c r="OM25" s="8"/>
+      <c r="ON25" s="8"/>
+      <c r="OO25" s="8"/>
+      <c r="OP25" s="8"/>
+      <c r="OQ25" s="8"/>
+      <c r="OR25" s="8"/>
+      <c r="OS25" s="8"/>
+      <c r="OT25" s="8"/>
+      <c r="OU25" s="8"/>
+      <c r="OV25" s="8"/>
+      <c r="OW25" s="8"/>
+      <c r="OX25" s="8"/>
+      <c r="OY25" s="8"/>
+      <c r="OZ25" s="8"/>
+      <c r="PA25" s="8"/>
+      <c r="PB25" s="8"/>
+      <c r="PC25" s="8"/>
+      <c r="PD25" s="8"/>
+      <c r="PE25" s="8"/>
+      <c r="PF25" s="8"/>
+      <c r="PG25" s="8"/>
+      <c r="PH25" s="8"/>
+      <c r="PI25" s="8"/>
+      <c r="PJ25" s="8"/>
+      <c r="PK25" s="8"/>
+      <c r="PL25" s="8"/>
+      <c r="PM25" s="8"/>
+      <c r="PN25" s="8"/>
+      <c r="PO25" s="8"/>
+      <c r="PP25" s="8"/>
+      <c r="PQ25" s="8"/>
+      <c r="PR25" s="8"/>
+      <c r="PS25" s="8"/>
+      <c r="PT25" s="8"/>
+      <c r="PU25" s="8"/>
+      <c r="PV25" s="8"/>
+      <c r="PW25" s="8"/>
+      <c r="PX25" s="8"/>
+      <c r="PY25" s="8"/>
+      <c r="PZ25" s="8"/>
+      <c r="QA25" s="8"/>
+      <c r="QB25" s="8"/>
+      <c r="QC25" s="8"/>
+      <c r="QD25" s="8"/>
+      <c r="QE25" s="8"/>
+      <c r="QF25" s="8"/>
+      <c r="QG25" s="8"/>
+      <c r="QH25" s="8"/>
+      <c r="QI25" s="8"/>
+      <c r="QJ25" s="8"/>
+      <c r="QK25" s="8"/>
+      <c r="QL25" s="8"/>
+      <c r="QM25" s="8"/>
+      <c r="QN25" s="8"/>
+      <c r="QO25" s="8"/>
+      <c r="QP25" s="8"/>
+      <c r="QQ25" s="8"/>
+      <c r="QR25" s="8"/>
+      <c r="QS25" s="8"/>
+      <c r="QT25" s="8"/>
+      <c r="QU25" s="8"/>
+      <c r="QV25" s="8"/>
+      <c r="QW25" s="8"/>
+      <c r="QX25" s="8"/>
+      <c r="QY25" s="8"/>
+      <c r="QZ25" s="8"/>
+      <c r="RA25" s="8"/>
+      <c r="RB25" s="8"/>
+      <c r="RC25" s="8"/>
+      <c r="RD25" s="8"/>
+      <c r="RE25" s="8"/>
+      <c r="RF25" s="8"/>
+      <c r="RG25" s="8"/>
+      <c r="RH25" s="8"/>
+      <c r="RI25" s="8"/>
+      <c r="RJ25" s="8"/>
+      <c r="RK25" s="8"/>
+      <c r="RL25" s="8"/>
+      <c r="RM25" s="8"/>
+      <c r="RN25" s="8"/>
+      <c r="RO25" s="8"/>
+      <c r="RP25" s="8"/>
+      <c r="RQ25" s="8"/>
+      <c r="RR25" s="8"/>
+      <c r="RS25" s="8"/>
+      <c r="RT25" s="8"/>
+      <c r="RU25" s="8"/>
+      <c r="RV25" s="8"/>
+      <c r="RW25" s="8"/>
+      <c r="RX25" s="8"/>
+      <c r="RY25" s="8"/>
+      <c r="RZ25" s="8"/>
+      <c r="SA25" s="8"/>
+      <c r="SB25" s="8"/>
+      <c r="SC25" s="8"/>
+      <c r="SD25" s="8"/>
+      <c r="SE25" s="8"/>
+      <c r="SF25" s="8"/>
+      <c r="SG25" s="8"/>
+      <c r="SH25" s="8"/>
+      <c r="SI25" s="8"/>
+      <c r="SJ25" s="8"/>
+      <c r="SK25" s="8"/>
+      <c r="SL25" s="8"/>
+      <c r="SM25" s="8"/>
+      <c r="SN25" s="8"/>
+      <c r="SO25" s="8"/>
+      <c r="SP25" s="8"/>
+      <c r="SQ25" s="8"/>
+      <c r="SR25" s="8"/>
+      <c r="SS25" s="8"/>
+      <c r="ST25" s="8"/>
+      <c r="SU25" s="8"/>
+      <c r="SV25" s="8"/>
+      <c r="SW25" s="8"/>
+      <c r="SX25" s="8"/>
+      <c r="SY25" s="8"/>
+      <c r="SZ25" s="8"/>
+      <c r="TA25" s="8"/>
+      <c r="TB25" s="8"/>
+      <c r="TC25" s="8"/>
+      <c r="TD25" s="8"/>
+      <c r="TE25" s="8"/>
+      <c r="TF25" s="8"/>
+      <c r="TG25" s="8"/>
+      <c r="TH25" s="8"/>
+      <c r="TI25" s="8"/>
+      <c r="TJ25" s="8"/>
+      <c r="TK25" s="8"/>
+      <c r="TL25" s="8"/>
+      <c r="TM25" s="8"/>
+      <c r="TN25" s="8"/>
+      <c r="TO25" s="8"/>
+      <c r="TP25" s="8"/>
+      <c r="TQ25" s="8"/>
+      <c r="TR25" s="8"/>
+      <c r="TS25" s="8"/>
+      <c r="TT25" s="8"/>
+      <c r="TU25" s="8"/>
+      <c r="TV25" s="8"/>
+      <c r="TW25" s="8"/>
+      <c r="TX25" s="8"/>
+      <c r="TY25" s="8"/>
+      <c r="TZ25" s="8"/>
+      <c r="UA25" s="8"/>
+      <c r="UB25" s="8"/>
+      <c r="UC25" s="8"/>
+      <c r="UD25" s="8"/>
+      <c r="UE25" s="8"/>
+      <c r="UF25" s="8"/>
+      <c r="UG25" s="8"/>
+      <c r="UH25" s="8"/>
+      <c r="UI25" s="8"/>
+      <c r="UJ25" s="8"/>
+      <c r="UK25" s="8"/>
+      <c r="UL25" s="8"/>
+      <c r="UM25" s="8"/>
+      <c r="UN25" s="8"/>
+      <c r="UO25" s="8"/>
+      <c r="UP25" s="8"/>
+      <c r="UQ25" s="8"/>
+      <c r="UR25" s="8"/>
+      <c r="US25" s="8"/>
+      <c r="UT25" s="8"/>
+      <c r="UU25" s="8"/>
+      <c r="UV25" s="8"/>
+      <c r="UW25" s="8"/>
+      <c r="UX25" s="8"/>
+      <c r="UY25" s="8"/>
+      <c r="UZ25" s="8"/>
+      <c r="VA25" s="8"/>
+      <c r="VB25" s="8"/>
+      <c r="VC25" s="8"/>
+      <c r="VD25" s="8"/>
+      <c r="VE25" s="8"/>
+      <c r="VF25" s="8"/>
+      <c r="VG25" s="8"/>
+      <c r="VH25" s="8"/>
+      <c r="VI25" s="8"/>
+      <c r="VJ25" s="8"/>
+      <c r="VK25" s="8"/>
+      <c r="VL25" s="8"/>
+      <c r="VM25" s="8"/>
+      <c r="VN25" s="8"/>
+      <c r="VO25" s="8"/>
+      <c r="VP25" s="8"/>
+      <c r="VQ25" s="8"/>
+      <c r="VR25" s="8"/>
+      <c r="VS25" s="8"/>
+      <c r="VT25" s="8"/>
+      <c r="VU25" s="8"/>
+      <c r="VV25" s="8"/>
+      <c r="VW25" s="8"/>
+      <c r="VX25" s="8"/>
+      <c r="VY25" s="8"/>
+      <c r="VZ25" s="8"/>
+      <c r="WA25" s="8"/>
+      <c r="WB25" s="8"/>
+      <c r="WC25" s="8"/>
+      <c r="WD25" s="8"/>
+      <c r="WE25" s="8"/>
+      <c r="WF25" s="8"/>
+      <c r="WG25" s="8"/>
+      <c r="WH25" s="8"/>
+      <c r="WI25" s="8"/>
+      <c r="WJ25" s="8"/>
+      <c r="WK25" s="8"/>
+      <c r="WL25" s="8"/>
+      <c r="WM25" s="8"/>
+      <c r="WN25" s="8"/>
+      <c r="WO25" s="8"/>
+      <c r="WP25" s="8"/>
+      <c r="WQ25" s="8"/>
+      <c r="WR25" s="8"/>
+      <c r="WS25" s="8"/>
+      <c r="WT25" s="8"/>
+      <c r="WU25" s="8"/>
+      <c r="WV25" s="8"/>
+      <c r="WW25" s="8"/>
+      <c r="WX25" s="8"/>
+      <c r="WY25" s="8"/>
+      <c r="WZ25" s="8"/>
+      <c r="XA25" s="8"/>
+      <c r="XB25" s="8"/>
+      <c r="XC25" s="8"/>
+      <c r="XD25" s="8"/>
+      <c r="XE25" s="8"/>
+      <c r="XF25" s="8"/>
+      <c r="XG25" s="8"/>
+      <c r="XH25" s="8"/>
+      <c r="XI25" s="8"/>
+      <c r="XJ25" s="8"/>
+      <c r="XK25" s="8"/>
+      <c r="XL25" s="8"/>
+      <c r="XM25" s="8"/>
+      <c r="XN25" s="8"/>
+      <c r="XO25" s="8"/>
+      <c r="XP25" s="8"/>
+      <c r="XQ25" s="8"/>
+      <c r="XR25" s="8"/>
+      <c r="XS25" s="8"/>
+      <c r="XT25" s="8"/>
+      <c r="XU25" s="8"/>
+      <c r="XV25" s="8"/>
+      <c r="XW25" s="8"/>
+      <c r="XX25" s="8"/>
+      <c r="XY25" s="8"/>
+      <c r="XZ25" s="8"/>
+      <c r="YA25" s="8"/>
+      <c r="YB25" s="8"/>
+      <c r="YC25" s="8"/>
+      <c r="YD25" s="8"/>
+      <c r="YE25" s="8"/>
+      <c r="YF25" s="8"/>
+      <c r="YG25" s="8"/>
+      <c r="YH25" s="8"/>
+      <c r="YI25" s="8"/>
+      <c r="YJ25" s="8"/>
+      <c r="YK25" s="8"/>
+      <c r="YL25" s="8"/>
+      <c r="YM25" s="8"/>
+      <c r="YN25" s="8"/>
+      <c r="YO25" s="8"/>
+      <c r="YP25" s="8"/>
+      <c r="YQ25" s="8"/>
+      <c r="YR25" s="8"/>
+      <c r="YS25" s="8"/>
+      <c r="YT25" s="8"/>
+      <c r="YU25" s="8"/>
+      <c r="YV25" s="8"/>
+      <c r="YW25" s="8"/>
+      <c r="YX25" s="8"/>
+      <c r="YY25" s="8"/>
+      <c r="YZ25" s="8"/>
+      <c r="ZA25" s="8"/>
+      <c r="ZB25" s="8"/>
+      <c r="ZC25" s="8"/>
+      <c r="ZD25" s="8"/>
+      <c r="ZE25" s="8"/>
+      <c r="ZF25" s="8"/>
+      <c r="ZG25" s="8"/>
+      <c r="ZH25" s="8"/>
+      <c r="ZI25" s="8"/>
+      <c r="ZJ25" s="8"/>
+      <c r="ZK25" s="8"/>
+      <c r="ZL25" s="8"/>
+      <c r="ZM25" s="8"/>
+      <c r="ZN25" s="8"/>
+      <c r="ZO25" s="8"/>
+      <c r="ZP25" s="8"/>
+      <c r="ZQ25" s="8"/>
+      <c r="ZR25" s="8"/>
+      <c r="ZS25" s="8"/>
+      <c r="ZT25" s="8"/>
+      <c r="ZU25" s="8"/>
+      <c r="ZV25" s="8"/>
+      <c r="ZW25" s="8"/>
+      <c r="ZX25" s="8"/>
+      <c r="ZY25" s="8"/>
+      <c r="ZZ25" s="8"/>
+      <c r="AAA25" s="8"/>
+      <c r="AAB25" s="8"/>
+      <c r="AAC25" s="8"/>
+      <c r="AAD25" s="8"/>
+      <c r="AAE25" s="8"/>
+      <c r="AAF25" s="8"/>
+      <c r="AAG25" s="8"/>
+      <c r="AAH25" s="8"/>
+      <c r="AAI25" s="8"/>
+      <c r="AAJ25" s="8"/>
+      <c r="AAK25" s="8"/>
+      <c r="AAL25" s="8"/>
+      <c r="AAM25" s="8"/>
+      <c r="AAN25" s="8"/>
+      <c r="AAO25" s="8"/>
+      <c r="AAP25" s="8"/>
+      <c r="AAQ25" s="8"/>
+      <c r="AAR25" s="8"/>
+      <c r="AAS25" s="8"/>
+      <c r="AAT25" s="8"/>
+      <c r="AAU25" s="8"/>
+      <c r="AAV25" s="8"/>
+      <c r="AAW25" s="8"/>
+      <c r="AAX25" s="8"/>
+      <c r="AAY25" s="8"/>
+      <c r="AAZ25" s="8"/>
+      <c r="ABA25" s="8"/>
+      <c r="ABB25" s="8"/>
+      <c r="ABC25" s="8"/>
+      <c r="ABD25" s="8"/>
+      <c r="ABE25" s="8"/>
+      <c r="ABF25" s="8"/>
+      <c r="ABG25" s="8"/>
+      <c r="ABH25" s="8"/>
+      <c r="ABI25" s="8"/>
+      <c r="ABJ25" s="8"/>
+      <c r="ABK25" s="8"/>
+      <c r="ABL25" s="8"/>
+      <c r="ABM25" s="8"/>
+      <c r="ABN25" s="8"/>
+      <c r="ABO25" s="8"/>
+      <c r="ABP25" s="8"/>
+      <c r="ABQ25" s="8"/>
+      <c r="ABR25" s="8"/>
+      <c r="ABS25" s="8"/>
+      <c r="ABT25" s="8"/>
+      <c r="ABU25" s="8"/>
+      <c r="ABV25" s="8"/>
+      <c r="ABW25" s="8"/>
+      <c r="ABX25" s="8"/>
+      <c r="ABY25" s="8"/>
+      <c r="ABZ25" s="8"/>
+      <c r="ACA25" s="8"/>
+      <c r="ACB25" s="8"/>
+      <c r="ACC25" s="8"/>
+      <c r="ACD25" s="8"/>
+      <c r="ACE25" s="8"/>
+      <c r="ACF25" s="8"/>
+      <c r="ACG25" s="8"/>
+      <c r="ACH25" s="8"/>
+      <c r="ACI25" s="8"/>
+      <c r="ACJ25" s="8"/>
+      <c r="ACK25" s="8"/>
+      <c r="ACL25" s="8"/>
+      <c r="ACM25" s="8"/>
+      <c r="ACN25" s="8"/>
+      <c r="ACO25" s="8"/>
+      <c r="ACP25" s="8"/>
+      <c r="ACQ25" s="8"/>
+      <c r="ACR25" s="8"/>
+      <c r="ACS25" s="8"/>
+      <c r="ACT25" s="8"/>
+      <c r="ACU25" s="8"/>
+      <c r="ACV25" s="8"/>
+      <c r="ACW25" s="8"/>
+      <c r="ACX25" s="8"/>
+      <c r="ACY25" s="8"/>
+      <c r="ACZ25" s="8"/>
+      <c r="ADA25" s="8"/>
+      <c r="ADB25" s="8"/>
+      <c r="ADC25" s="8"/>
+      <c r="ADD25" s="8"/>
+      <c r="ADE25" s="8"/>
+      <c r="ADF25" s="8"/>
+      <c r="ADG25" s="8"/>
+      <c r="ADH25" s="8"/>
+      <c r="ADI25" s="8"/>
+      <c r="ADJ25" s="8"/>
+      <c r="ADK25" s="8"/>
+      <c r="ADL25" s="8"/>
+      <c r="ADM25" s="8"/>
+      <c r="ADN25" s="8"/>
+      <c r="ADO25" s="8"/>
+      <c r="ADP25" s="8"/>
+      <c r="ADQ25" s="8"/>
+      <c r="ADR25" s="8"/>
+      <c r="ADS25" s="8"/>
+      <c r="ADT25" s="8"/>
+      <c r="ADU25" s="8"/>
+      <c r="ADV25" s="8"/>
+      <c r="ADW25" s="8"/>
+      <c r="ADX25" s="8"/>
+      <c r="ADY25" s="8"/>
+      <c r="ADZ25" s="8"/>
+      <c r="AEA25" s="8"/>
+      <c r="AEB25" s="8"/>
+      <c r="AEC25" s="8"/>
+      <c r="AED25" s="8"/>
+      <c r="AEE25" s="8"/>
+      <c r="AEF25" s="8"/>
+      <c r="AEG25" s="8"/>
+      <c r="AEH25" s="8"/>
+      <c r="AEI25" s="8"/>
+      <c r="AEJ25" s="8"/>
+      <c r="AEK25" s="8"/>
+      <c r="AEL25" s="8"/>
+      <c r="AEM25" s="8"/>
+      <c r="AEN25" s="8"/>
+      <c r="AEO25" s="8"/>
+      <c r="AEP25" s="8"/>
+      <c r="AEQ25" s="8"/>
+      <c r="AER25" s="8"/>
+      <c r="AES25" s="8"/>
+      <c r="AET25" s="8"/>
+      <c r="AEU25" s="8"/>
+      <c r="AEV25" s="8"/>
+      <c r="AEW25" s="8"/>
+      <c r="AEX25" s="8"/>
+      <c r="AEY25" s="8"/>
+      <c r="AEZ25" s="8"/>
+      <c r="AFA25" s="8"/>
+      <c r="AFB25" s="8"/>
+      <c r="AFC25" s="8"/>
+      <c r="AFD25" s="8"/>
+      <c r="AFE25" s="8"/>
+      <c r="AFF25" s="8"/>
+      <c r="AFG25" s="8"/>
+      <c r="AFH25" s="8"/>
+      <c r="AFI25" s="8"/>
+      <c r="AFJ25" s="8"/>
+      <c r="AFK25" s="8"/>
+      <c r="AFL25" s="8"/>
+      <c r="AFM25" s="8"/>
+      <c r="AFN25" s="8"/>
+      <c r="AFO25" s="8"/>
+      <c r="AFP25" s="8"/>
+      <c r="AFQ25" s="8"/>
+      <c r="AFR25" s="8"/>
+      <c r="AFS25" s="8"/>
+      <c r="AFT25" s="8"/>
+      <c r="AFU25" s="8"/>
+      <c r="AFV25" s="8"/>
+      <c r="AFW25" s="8"/>
+      <c r="AFX25" s="8"/>
+      <c r="AFY25" s="8"/>
+      <c r="AFZ25" s="8"/>
+      <c r="AGA25" s="8"/>
+      <c r="AGB25" s="8"/>
+      <c r="AGC25" s="8"/>
+      <c r="AGD25" s="8"/>
+      <c r="AGE25" s="8"/>
+      <c r="AGF25" s="8"/>
+      <c r="AGG25" s="8"/>
+      <c r="AGH25" s="8"/>
+      <c r="AGI25" s="8"/>
+      <c r="AGJ25" s="8"/>
+      <c r="AGK25" s="8"/>
+      <c r="AGL25" s="8"/>
+      <c r="AGM25" s="8"/>
+      <c r="AGN25" s="8"/>
+      <c r="AGO25" s="8"/>
+      <c r="AGP25" s="8"/>
+      <c r="AGQ25" s="8"/>
+      <c r="AGR25" s="8"/>
+      <c r="AGS25" s="8"/>
+      <c r="AGT25" s="8"/>
+      <c r="AGU25" s="8"/>
+      <c r="AGV25" s="8"/>
+      <c r="AGW25" s="8"/>
+      <c r="AGX25" s="8"/>
+      <c r="AGY25" s="8"/>
+      <c r="AGZ25" s="8"/>
+      <c r="AHA25" s="8"/>
+      <c r="AHB25" s="8"/>
+      <c r="AHC25" s="8"/>
+      <c r="AHD25" s="8"/>
+      <c r="AHE25" s="8"/>
+      <c r="AHF25" s="8"/>
+      <c r="AHG25" s="8"/>
+      <c r="AHH25" s="8"/>
+      <c r="AHI25" s="8"/>
+      <c r="AHJ25" s="8"/>
+      <c r="AHK25" s="8"/>
+      <c r="AHL25" s="8"/>
+      <c r="AHM25" s="8"/>
+      <c r="AHN25" s="8"/>
+      <c r="AHO25" s="8"/>
+      <c r="AHP25" s="8"/>
+      <c r="AHQ25" s="8"/>
+      <c r="AHR25" s="8"/>
+      <c r="AHS25" s="8"/>
+      <c r="AHT25" s="8"/>
+      <c r="AHU25" s="8"/>
+      <c r="AHV25" s="8"/>
+      <c r="AHW25" s="8"/>
+      <c r="AHX25" s="8"/>
+      <c r="AHY25" s="8"/>
+      <c r="AHZ25" s="8"/>
+      <c r="AIA25" s="8"/>
+      <c r="AIB25" s="8"/>
+      <c r="AIC25" s="8"/>
+      <c r="AID25" s="8"/>
+      <c r="AIE25" s="8"/>
+      <c r="AIF25" s="8"/>
+      <c r="AIG25" s="8"/>
+      <c r="AIH25" s="8"/>
+      <c r="AII25" s="8"/>
+      <c r="AIJ25" s="8"/>
+      <c r="AIK25" s="8"/>
+      <c r="AIL25" s="8"/>
+      <c r="AIM25" s="8"/>
+      <c r="AIN25" s="8"/>
+      <c r="AIO25" s="8"/>
+      <c r="AIP25" s="8"/>
+      <c r="AIQ25" s="8"/>
+      <c r="AIR25" s="8"/>
+      <c r="AIS25" s="8"/>
+      <c r="AIT25" s="8"/>
+      <c r="AIU25" s="8"/>
+      <c r="AIV25" s="8"/>
+      <c r="AIW25" s="8"/>
+      <c r="AIX25" s="8"/>
+      <c r="AIY25" s="8"/>
+      <c r="AIZ25" s="8"/>
+      <c r="AJA25" s="8"/>
+      <c r="AJB25" s="8"/>
+      <c r="AJC25" s="8"/>
+      <c r="AJD25" s="8"/>
+      <c r="AJE25" s="8"/>
+      <c r="AJF25" s="8"/>
+      <c r="AJG25" s="8"/>
+      <c r="AJH25" s="8"/>
+      <c r="AJI25" s="8"/>
+      <c r="AJJ25" s="8"/>
+      <c r="AJK25" s="8"/>
+      <c r="AJL25" s="8"/>
+      <c r="AJM25" s="8"/>
+      <c r="AJN25" s="8"/>
+      <c r="AJO25" s="8"/>
+      <c r="AJP25" s="8"/>
+      <c r="AJQ25" s="8"/>
+      <c r="AJR25" s="8"/>
+      <c r="AJS25" s="8"/>
+      <c r="AJT25" s="8"/>
+      <c r="AJU25" s="8"/>
+      <c r="AJV25" s="8"/>
+      <c r="AJW25" s="8"/>
+      <c r="AJX25" s="8"/>
+      <c r="AJY25" s="8"/>
+      <c r="AJZ25" s="8"/>
+      <c r="AKA25" s="8"/>
+      <c r="AKB25" s="8"/>
+      <c r="AKC25" s="8"/>
+      <c r="AKD25" s="8"/>
+      <c r="AKE25" s="8"/>
+      <c r="AKF25" s="8"/>
+      <c r="AKG25" s="8"/>
+      <c r="AKH25" s="8"/>
+      <c r="AKI25" s="8"/>
+      <c r="AKJ25" s="8"/>
+      <c r="AKK25" s="8"/>
+      <c r="AKL25" s="8"/>
+      <c r="AKM25" s="8"/>
+      <c r="AKN25" s="8"/>
+      <c r="AKO25" s="8"/>
+      <c r="AKP25" s="8"/>
+      <c r="AKQ25" s="8"/>
+      <c r="AKR25" s="8"/>
+      <c r="AKS25" s="8"/>
+      <c r="AKT25" s="8"/>
+      <c r="AKU25" s="8"/>
+      <c r="AKV25" s="8"/>
+      <c r="AKW25" s="8"/>
+      <c r="AKX25" s="8"/>
+      <c r="AKY25" s="8"/>
+      <c r="AKZ25" s="8"/>
+      <c r="ALA25" s="8"/>
+      <c r="ALB25" s="8"/>
+      <c r="ALC25" s="8"/>
+      <c r="ALD25" s="8"/>
+      <c r="ALE25" s="8"/>
+      <c r="ALF25" s="8"/>
+      <c r="ALG25" s="8"/>
+      <c r="ALH25" s="8"/>
+      <c r="ALI25" s="8"/>
+      <c r="ALJ25" s="8"/>
+      <c r="ALK25" s="8"/>
+      <c r="ALL25" s="8"/>
+      <c r="ALM25" s="8"/>
+      <c r="ALN25" s="8"/>
+      <c r="ALO25" s="8"/>
+      <c r="ALP25" s="8"/>
+      <c r="ALQ25" s="8"/>
+      <c r="ALR25" s="8"/>
+      <c r="ALS25" s="8"/>
+      <c r="ALT25" s="8"/>
+      <c r="ALU25" s="8"/>
+      <c r="ALV25" s="8"/>
+      <c r="ALW25" s="8"/>
+      <c r="ALX25" s="8"/>
+      <c r="ALY25" s="8"/>
+      <c r="ALZ25" s="8"/>
+      <c r="AMA25" s="8"/>
+      <c r="AMB25" s="8"/>
+      <c r="AMC25" s="8"/>
+      <c r="AMD25" s="8"/>
+      <c r="AME25" s="8"/>
+      <c r="AMF25" s="8"/>
+      <c r="AMG25" s="8"/>
+      <c r="AMH25" s="8"/>
+      <c r="AMI25" s="8"/>
+      <c r="AMJ25" s="8"/>
+      <c r="AMK25" s="8"/>
+    </row>
+    <row r="26" spans="1:1025" s="12" customFormat="1" ht="152">
+      <c r="A26" s="13">
+        <v>22</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F26" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="11"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="11"/>
-      <c r="AN25" s="11"/>
-      <c r="AO25" s="11"/>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="11"/>
-      <c r="AS25" s="11"/>
-      <c r="AT25" s="11"/>
-      <c r="AU25" s="11"/>
-      <c r="AV25" s="11"/>
-      <c r="AW25" s="11"/>
-      <c r="AX25" s="11"/>
-      <c r="AY25" s="11"/>
-      <c r="AZ25" s="11"/>
-      <c r="BA25" s="11"/>
-      <c r="BB25" s="11"/>
-      <c r="BC25" s="11"/>
-      <c r="BD25" s="11"/>
-      <c r="BE25" s="11"/>
-      <c r="BF25" s="11"/>
-      <c r="BG25" s="11"/>
-      <c r="BH25" s="11"/>
-      <c r="BI25" s="11"/>
-      <c r="BJ25" s="11"/>
-      <c r="BK25" s="11"/>
-      <c r="BL25" s="11"/>
-      <c r="BM25" s="11"/>
-      <c r="BN25" s="11"/>
-      <c r="BO25" s="11"/>
-      <c r="BP25" s="11"/>
-      <c r="BQ25" s="11"/>
-      <c r="BR25" s="11"/>
-      <c r="BS25" s="11"/>
-      <c r="BT25" s="11"/>
-      <c r="BU25" s="11"/>
-      <c r="BV25" s="11"/>
-      <c r="BW25" s="11"/>
-      <c r="BX25" s="11"/>
-      <c r="BY25" s="11"/>
-      <c r="BZ25" s="11"/>
-      <c r="CA25" s="11"/>
-      <c r="CB25" s="11"/>
-      <c r="CC25" s="11"/>
-      <c r="CD25" s="11"/>
-      <c r="CE25" s="11"/>
-      <c r="CF25" s="11"/>
-      <c r="CG25" s="11"/>
-      <c r="CH25" s="11"/>
-      <c r="CI25" s="11"/>
-      <c r="CJ25" s="11"/>
-      <c r="CK25" s="11"/>
-      <c r="CL25" s="11"/>
-      <c r="CM25" s="11"/>
-      <c r="CN25" s="11"/>
-      <c r="CO25" s="11"/>
-      <c r="CP25" s="11"/>
-      <c r="CQ25" s="11"/>
-      <c r="CR25" s="11"/>
-      <c r="CS25" s="11"/>
-      <c r="CT25" s="11"/>
-      <c r="CU25" s="11"/>
-      <c r="CV25" s="11"/>
-      <c r="CW25" s="11"/>
-      <c r="CX25" s="11"/>
-      <c r="CY25" s="11"/>
-      <c r="CZ25" s="11"/>
-      <c r="DA25" s="11"/>
-      <c r="DB25" s="11"/>
-      <c r="DC25" s="11"/>
-      <c r="DD25" s="11"/>
-      <c r="DE25" s="11"/>
-      <c r="DF25" s="11"/>
-      <c r="DG25" s="11"/>
-      <c r="DH25" s="11"/>
-      <c r="DI25" s="11"/>
-      <c r="DJ25" s="11"/>
-      <c r="DK25" s="11"/>
-      <c r="DL25" s="11"/>
-      <c r="DM25" s="11"/>
-      <c r="DN25" s="11"/>
-      <c r="DO25" s="11"/>
-      <c r="DP25" s="11"/>
-      <c r="DQ25" s="11"/>
-      <c r="DR25" s="11"/>
-      <c r="DS25" s="11"/>
-      <c r="DT25" s="11"/>
-      <c r="DU25" s="11"/>
-      <c r="DV25" s="11"/>
-      <c r="DW25" s="11"/>
-      <c r="DX25" s="11"/>
-      <c r="DY25" s="11"/>
-      <c r="DZ25" s="11"/>
-      <c r="EA25" s="11"/>
-      <c r="EB25" s="11"/>
-      <c r="EC25" s="11"/>
-      <c r="ED25" s="11"/>
-      <c r="EE25" s="11"/>
-      <c r="EF25" s="11"/>
-      <c r="EG25" s="11"/>
-      <c r="EH25" s="11"/>
-      <c r="EI25" s="11"/>
-      <c r="EJ25" s="11"/>
-      <c r="EK25" s="11"/>
-      <c r="EL25" s="11"/>
-      <c r="EM25" s="11"/>
-      <c r="EN25" s="11"/>
-      <c r="EO25" s="11"/>
-      <c r="EP25" s="11"/>
-      <c r="EQ25" s="11"/>
-      <c r="ER25" s="11"/>
-      <c r="ES25" s="11"/>
-      <c r="ET25" s="11"/>
-      <c r="EU25" s="11"/>
-      <c r="EV25" s="11"/>
-      <c r="EW25" s="11"/>
-      <c r="EX25" s="11"/>
-      <c r="EY25" s="11"/>
-      <c r="EZ25" s="11"/>
-      <c r="FA25" s="11"/>
-      <c r="FB25" s="11"/>
-      <c r="FC25" s="11"/>
-      <c r="FD25" s="11"/>
-      <c r="FE25" s="11"/>
-      <c r="FF25" s="11"/>
-      <c r="FG25" s="11"/>
-      <c r="FH25" s="11"/>
-      <c r="FI25" s="11"/>
-      <c r="FJ25" s="11"/>
-      <c r="FK25" s="11"/>
-      <c r="FL25" s="11"/>
-      <c r="FM25" s="11"/>
-      <c r="FN25" s="11"/>
-      <c r="FO25" s="11"/>
-      <c r="FP25" s="11"/>
-      <c r="FQ25" s="11"/>
-      <c r="FR25" s="11"/>
-      <c r="FS25" s="11"/>
-      <c r="FT25" s="11"/>
-      <c r="FU25" s="11"/>
-      <c r="FV25" s="11"/>
-      <c r="FW25" s="11"/>
-      <c r="FX25" s="11"/>
-      <c r="FY25" s="11"/>
-      <c r="FZ25" s="11"/>
-      <c r="GA25" s="11"/>
-      <c r="GB25" s="11"/>
-      <c r="GC25" s="11"/>
-      <c r="GD25" s="11"/>
-      <c r="GE25" s="11"/>
-      <c r="GF25" s="11"/>
-      <c r="GG25" s="11"/>
-      <c r="GH25" s="11"/>
-      <c r="GI25" s="11"/>
-      <c r="GJ25" s="11"/>
-      <c r="GK25" s="11"/>
-      <c r="GL25" s="11"/>
-      <c r="GM25" s="11"/>
-      <c r="GN25" s="11"/>
-      <c r="GO25" s="11"/>
-      <c r="GP25" s="11"/>
-      <c r="GQ25" s="11"/>
-      <c r="GR25" s="11"/>
-      <c r="GS25" s="11"/>
-      <c r="GT25" s="11"/>
-      <c r="GU25" s="11"/>
-      <c r="GV25" s="11"/>
-      <c r="GW25" s="11"/>
-      <c r="GX25" s="11"/>
-      <c r="GY25" s="11"/>
-      <c r="GZ25" s="11"/>
-      <c r="HA25" s="11"/>
-      <c r="HB25" s="11"/>
-      <c r="HC25" s="11"/>
-      <c r="HD25" s="11"/>
-      <c r="HE25" s="11"/>
-      <c r="HF25" s="11"/>
-      <c r="HG25" s="11"/>
-      <c r="HH25" s="11"/>
-      <c r="HI25" s="11"/>
-      <c r="HJ25" s="11"/>
-      <c r="HK25" s="11"/>
-      <c r="HL25" s="11"/>
-      <c r="HM25" s="11"/>
-      <c r="HN25" s="11"/>
-      <c r="HO25" s="11"/>
-      <c r="HP25" s="11"/>
-      <c r="HQ25" s="11"/>
-      <c r="HR25" s="11"/>
-      <c r="HS25" s="11"/>
-      <c r="HT25" s="11"/>
-      <c r="HU25" s="11"/>
-      <c r="HV25" s="11"/>
-      <c r="HW25" s="11"/>
-      <c r="HX25" s="11"/>
-      <c r="HY25" s="11"/>
-      <c r="HZ25" s="11"/>
-      <c r="IA25" s="11"/>
-      <c r="IB25" s="11"/>
-      <c r="IC25" s="11"/>
-      <c r="ID25" s="11"/>
-      <c r="IE25" s="11"/>
-      <c r="IF25" s="11"/>
-      <c r="IG25" s="11"/>
-      <c r="IH25" s="11"/>
-      <c r="II25" s="11"/>
-      <c r="IJ25" s="11"/>
-      <c r="IK25" s="11"/>
-      <c r="IL25" s="11"/>
-      <c r="IM25" s="11"/>
-      <c r="IN25" s="11"/>
-      <c r="IO25" s="11"/>
-      <c r="IP25" s="11"/>
-      <c r="IQ25" s="11"/>
-      <c r="IR25" s="11"/>
-      <c r="IS25" s="11"/>
-      <c r="IT25" s="11"/>
-      <c r="IU25" s="11"/>
-      <c r="IV25" s="11"/>
-      <c r="IW25" s="11"/>
-      <c r="IX25" s="11"/>
-      <c r="IY25" s="11"/>
-      <c r="IZ25" s="11"/>
-      <c r="JA25" s="11"/>
-      <c r="JB25" s="11"/>
-      <c r="JC25" s="11"/>
-      <c r="JD25" s="11"/>
-      <c r="JE25" s="11"/>
-      <c r="JF25" s="11"/>
-      <c r="JG25" s="11"/>
-      <c r="JH25" s="11"/>
-      <c r="JI25" s="11"/>
-      <c r="JJ25" s="11"/>
-      <c r="JK25" s="11"/>
-      <c r="JL25" s="11"/>
-      <c r="JM25" s="11"/>
-      <c r="JN25" s="11"/>
-      <c r="JO25" s="11"/>
-      <c r="JP25" s="11"/>
-      <c r="JQ25" s="11"/>
-      <c r="JR25" s="11"/>
-      <c r="JS25" s="11"/>
-      <c r="JT25" s="11"/>
-      <c r="JU25" s="11"/>
-      <c r="JV25" s="11"/>
-      <c r="JW25" s="11"/>
-      <c r="JX25" s="11"/>
-      <c r="JY25" s="11"/>
-      <c r="JZ25" s="11"/>
-      <c r="KA25" s="11"/>
-      <c r="KB25" s="11"/>
-      <c r="KC25" s="11"/>
-      <c r="KD25" s="11"/>
-      <c r="KE25" s="11"/>
-      <c r="KF25" s="11"/>
-      <c r="KG25" s="11"/>
-      <c r="KH25" s="11"/>
-      <c r="KI25" s="11"/>
-      <c r="KJ25" s="11"/>
-      <c r="KK25" s="11"/>
-      <c r="KL25" s="11"/>
-      <c r="KM25" s="11"/>
-      <c r="KN25" s="11"/>
-      <c r="KO25" s="11"/>
-      <c r="KP25" s="11"/>
-      <c r="KQ25" s="11"/>
-      <c r="KR25" s="11"/>
-      <c r="KS25" s="11"/>
-      <c r="KT25" s="11"/>
-      <c r="KU25" s="11"/>
-      <c r="KV25" s="11"/>
-      <c r="KW25" s="11"/>
-      <c r="KX25" s="11"/>
-      <c r="KY25" s="11"/>
-      <c r="KZ25" s="11"/>
-      <c r="LA25" s="11"/>
-      <c r="LB25" s="11"/>
-      <c r="LC25" s="11"/>
-      <c r="LD25" s="11"/>
-      <c r="LE25" s="11"/>
-      <c r="LF25" s="11"/>
-      <c r="LG25" s="11"/>
-      <c r="LH25" s="11"/>
-      <c r="LI25" s="11"/>
-      <c r="LJ25" s="11"/>
-      <c r="LK25" s="11"/>
-      <c r="LL25" s="11"/>
-      <c r="LM25" s="11"/>
-      <c r="LN25" s="11"/>
-      <c r="LO25" s="11"/>
-      <c r="LP25" s="11"/>
-      <c r="LQ25" s="11"/>
-      <c r="LR25" s="11"/>
-      <c r="LS25" s="11"/>
-      <c r="LT25" s="11"/>
-      <c r="LU25" s="11"/>
-      <c r="LV25" s="11"/>
-      <c r="LW25" s="11"/>
-      <c r="LX25" s="11"/>
-      <c r="LY25" s="11"/>
-      <c r="LZ25" s="11"/>
-      <c r="MA25" s="11"/>
-      <c r="MB25" s="11"/>
-      <c r="MC25" s="11"/>
-      <c r="MD25" s="11"/>
-      <c r="ME25" s="11"/>
-      <c r="MF25" s="11"/>
-      <c r="MG25" s="11"/>
-      <c r="MH25" s="11"/>
-      <c r="MI25" s="11"/>
-      <c r="MJ25" s="11"/>
-      <c r="MK25" s="11"/>
-      <c r="ML25" s="11"/>
-      <c r="MM25" s="11"/>
-      <c r="MN25" s="11"/>
-      <c r="MO25" s="11"/>
-      <c r="MP25" s="11"/>
-      <c r="MQ25" s="11"/>
-      <c r="MR25" s="11"/>
-      <c r="MS25" s="11"/>
-      <c r="MT25" s="11"/>
-      <c r="MU25" s="11"/>
-      <c r="MV25" s="11"/>
-      <c r="MW25" s="11"/>
-      <c r="MX25" s="11"/>
-      <c r="MY25" s="11"/>
-      <c r="MZ25" s="11"/>
-      <c r="NA25" s="11"/>
-      <c r="NB25" s="11"/>
-      <c r="NC25" s="11"/>
-      <c r="ND25" s="11"/>
-      <c r="NE25" s="11"/>
-      <c r="NF25" s="11"/>
-      <c r="NG25" s="11"/>
-      <c r="NH25" s="11"/>
-      <c r="NI25" s="11"/>
-      <c r="NJ25" s="11"/>
-      <c r="NK25" s="11"/>
-      <c r="NL25" s="11"/>
-      <c r="NM25" s="11"/>
-      <c r="NN25" s="11"/>
-      <c r="NO25" s="11"/>
-      <c r="NP25" s="11"/>
-      <c r="NQ25" s="11"/>
-      <c r="NR25" s="11"/>
-      <c r="NS25" s="11"/>
-      <c r="NT25" s="11"/>
-      <c r="NU25" s="11"/>
-      <c r="NV25" s="11"/>
-      <c r="NW25" s="11"/>
-      <c r="NX25" s="11"/>
-      <c r="NY25" s="11"/>
-      <c r="NZ25" s="11"/>
-      <c r="OA25" s="11"/>
-      <c r="OB25" s="11"/>
-      <c r="OC25" s="11"/>
-      <c r="OD25" s="11"/>
-      <c r="OE25" s="11"/>
-      <c r="OF25" s="11"/>
-      <c r="OG25" s="11"/>
-      <c r="OH25" s="11"/>
-      <c r="OI25" s="11"/>
-      <c r="OJ25" s="11"/>
-      <c r="OK25" s="11"/>
-      <c r="OL25" s="11"/>
-      <c r="OM25" s="11"/>
-      <c r="ON25" s="11"/>
-      <c r="OO25" s="11"/>
-      <c r="OP25" s="11"/>
-      <c r="OQ25" s="11"/>
-      <c r="OR25" s="11"/>
-      <c r="OS25" s="11"/>
-      <c r="OT25" s="11"/>
-      <c r="OU25" s="11"/>
-      <c r="OV25" s="11"/>
-      <c r="OW25" s="11"/>
-      <c r="OX25" s="11"/>
-      <c r="OY25" s="11"/>
-      <c r="OZ25" s="11"/>
-      <c r="PA25" s="11"/>
-      <c r="PB25" s="11"/>
-      <c r="PC25" s="11"/>
-      <c r="PD25" s="11"/>
-      <c r="PE25" s="11"/>
-      <c r="PF25" s="11"/>
-      <c r="PG25" s="11"/>
-      <c r="PH25" s="11"/>
-      <c r="PI25" s="11"/>
-      <c r="PJ25" s="11"/>
-      <c r="PK25" s="11"/>
-      <c r="PL25" s="11"/>
-      <c r="PM25" s="11"/>
-      <c r="PN25" s="11"/>
-      <c r="PO25" s="11"/>
-      <c r="PP25" s="11"/>
-      <c r="PQ25" s="11"/>
-      <c r="PR25" s="11"/>
-      <c r="PS25" s="11"/>
-      <c r="PT25" s="11"/>
-      <c r="PU25" s="11"/>
-      <c r="PV25" s="11"/>
-      <c r="PW25" s="11"/>
-      <c r="PX25" s="11"/>
-      <c r="PY25" s="11"/>
-      <c r="PZ25" s="11"/>
-      <c r="QA25" s="11"/>
-      <c r="QB25" s="11"/>
-      <c r="QC25" s="11"/>
-      <c r="QD25" s="11"/>
-      <c r="QE25" s="11"/>
-      <c r="QF25" s="11"/>
-      <c r="QG25" s="11"/>
-      <c r="QH25" s="11"/>
-      <c r="QI25" s="11"/>
-      <c r="QJ25" s="11"/>
-      <c r="QK25" s="11"/>
-      <c r="QL25" s="11"/>
-      <c r="QM25" s="11"/>
-      <c r="QN25" s="11"/>
-      <c r="QO25" s="11"/>
-      <c r="QP25" s="11"/>
-      <c r="QQ25" s="11"/>
-      <c r="QR25" s="11"/>
-      <c r="QS25" s="11"/>
-      <c r="QT25" s="11"/>
-      <c r="QU25" s="11"/>
-      <c r="QV25" s="11"/>
-      <c r="QW25" s="11"/>
-      <c r="QX25" s="11"/>
-      <c r="QY25" s="11"/>
-      <c r="QZ25" s="11"/>
-      <c r="RA25" s="11"/>
-      <c r="RB25" s="11"/>
-      <c r="RC25" s="11"/>
-      <c r="RD25" s="11"/>
-      <c r="RE25" s="11"/>
-      <c r="RF25" s="11"/>
-      <c r="RG25" s="11"/>
-      <c r="RH25" s="11"/>
-      <c r="RI25" s="11"/>
-      <c r="RJ25" s="11"/>
-      <c r="RK25" s="11"/>
-      <c r="RL25" s="11"/>
-      <c r="RM25" s="11"/>
-      <c r="RN25" s="11"/>
-      <c r="RO25" s="11"/>
-      <c r="RP25" s="11"/>
-      <c r="RQ25" s="11"/>
-      <c r="RR25" s="11"/>
-      <c r="RS25" s="11"/>
-      <c r="RT25" s="11"/>
-      <c r="RU25" s="11"/>
-      <c r="RV25" s="11"/>
-      <c r="RW25" s="11"/>
-      <c r="RX25" s="11"/>
-      <c r="RY25" s="11"/>
-      <c r="RZ25" s="11"/>
-      <c r="SA25" s="11"/>
-      <c r="SB25" s="11"/>
-      <c r="SC25" s="11"/>
-      <c r="SD25" s="11"/>
-      <c r="SE25" s="11"/>
-      <c r="SF25" s="11"/>
-      <c r="SG25" s="11"/>
-      <c r="SH25" s="11"/>
-      <c r="SI25" s="11"/>
-      <c r="SJ25" s="11"/>
-      <c r="SK25" s="11"/>
-      <c r="SL25" s="11"/>
-      <c r="SM25" s="11"/>
-      <c r="SN25" s="11"/>
-      <c r="SO25" s="11"/>
-      <c r="SP25" s="11"/>
-      <c r="SQ25" s="11"/>
-      <c r="SR25" s="11"/>
-      <c r="SS25" s="11"/>
-      <c r="ST25" s="11"/>
-      <c r="SU25" s="11"/>
-      <c r="SV25" s="11"/>
-      <c r="SW25" s="11"/>
-      <c r="SX25" s="11"/>
-      <c r="SY25" s="11"/>
-      <c r="SZ25" s="11"/>
-      <c r="TA25" s="11"/>
-      <c r="TB25" s="11"/>
-      <c r="TC25" s="11"/>
-      <c r="TD25" s="11"/>
-      <c r="TE25" s="11"/>
-      <c r="TF25" s="11"/>
-      <c r="TG25" s="11"/>
-      <c r="TH25" s="11"/>
-      <c r="TI25" s="11"/>
-      <c r="TJ25" s="11"/>
-      <c r="TK25" s="11"/>
-      <c r="TL25" s="11"/>
-      <c r="TM25" s="11"/>
-      <c r="TN25" s="11"/>
-      <c r="TO25" s="11"/>
-      <c r="TP25" s="11"/>
-      <c r="TQ25" s="11"/>
-      <c r="TR25" s="11"/>
-      <c r="TS25" s="11"/>
-      <c r="TT25" s="11"/>
-      <c r="TU25" s="11"/>
-      <c r="TV25" s="11"/>
-      <c r="TW25" s="11"/>
-      <c r="TX25" s="11"/>
-      <c r="TY25" s="11"/>
-      <c r="TZ25" s="11"/>
-      <c r="UA25" s="11"/>
-      <c r="UB25" s="11"/>
-      <c r="UC25" s="11"/>
-      <c r="UD25" s="11"/>
-      <c r="UE25" s="11"/>
-      <c r="UF25" s="11"/>
-      <c r="UG25" s="11"/>
-      <c r="UH25" s="11"/>
-      <c r="UI25" s="11"/>
-      <c r="UJ25" s="11"/>
-      <c r="UK25" s="11"/>
-      <c r="UL25" s="11"/>
-      <c r="UM25" s="11"/>
-      <c r="UN25" s="11"/>
-      <c r="UO25" s="11"/>
-      <c r="UP25" s="11"/>
-      <c r="UQ25" s="11"/>
-      <c r="UR25" s="11"/>
-      <c r="US25" s="11"/>
-      <c r="UT25" s="11"/>
-      <c r="UU25" s="11"/>
-      <c r="UV25" s="11"/>
-      <c r="UW25" s="11"/>
-      <c r="UX25" s="11"/>
-      <c r="UY25" s="11"/>
-      <c r="UZ25" s="11"/>
-      <c r="VA25" s="11"/>
-      <c r="VB25" s="11"/>
-      <c r="VC25" s="11"/>
-      <c r="VD25" s="11"/>
-      <c r="VE25" s="11"/>
-      <c r="VF25" s="11"/>
-      <c r="VG25" s="11"/>
-      <c r="VH25" s="11"/>
-      <c r="VI25" s="11"/>
-      <c r="VJ25" s="11"/>
-      <c r="VK25" s="11"/>
-      <c r="VL25" s="11"/>
-      <c r="VM25" s="11"/>
-      <c r="VN25" s="11"/>
-      <c r="VO25" s="11"/>
-      <c r="VP25" s="11"/>
-      <c r="VQ25" s="11"/>
-      <c r="VR25" s="11"/>
-      <c r="VS25" s="11"/>
-      <c r="VT25" s="11"/>
-      <c r="VU25" s="11"/>
-      <c r="VV25" s="11"/>
-      <c r="VW25" s="11"/>
-      <c r="VX25" s="11"/>
-      <c r="VY25" s="11"/>
-      <c r="VZ25" s="11"/>
-      <c r="WA25" s="11"/>
-      <c r="WB25" s="11"/>
-      <c r="WC25" s="11"/>
-      <c r="WD25" s="11"/>
-      <c r="WE25" s="11"/>
-      <c r="WF25" s="11"/>
-      <c r="WG25" s="11"/>
-      <c r="WH25" s="11"/>
-      <c r="WI25" s="11"/>
-      <c r="WJ25" s="11"/>
-      <c r="WK25" s="11"/>
-      <c r="WL25" s="11"/>
-      <c r="WM25" s="11"/>
-      <c r="WN25" s="11"/>
-      <c r="WO25" s="11"/>
-      <c r="WP25" s="11"/>
-      <c r="WQ25" s="11"/>
-      <c r="WR25" s="11"/>
-      <c r="WS25" s="11"/>
-      <c r="WT25" s="11"/>
-      <c r="WU25" s="11"/>
-      <c r="WV25" s="11"/>
-      <c r="WW25" s="11"/>
-      <c r="WX25" s="11"/>
-      <c r="WY25" s="11"/>
-      <c r="WZ25" s="11"/>
-      <c r="XA25" s="11"/>
-      <c r="XB25" s="11"/>
-      <c r="XC25" s="11"/>
-      <c r="XD25" s="11"/>
-      <c r="XE25" s="11"/>
-      <c r="XF25" s="11"/>
-      <c r="XG25" s="11"/>
-      <c r="XH25" s="11"/>
-      <c r="XI25" s="11"/>
-      <c r="XJ25" s="11"/>
-      <c r="XK25" s="11"/>
-      <c r="XL25" s="11"/>
-      <c r="XM25" s="11"/>
-      <c r="XN25" s="11"/>
-      <c r="XO25" s="11"/>
-      <c r="XP25" s="11"/>
-      <c r="XQ25" s="11"/>
-      <c r="XR25" s="11"/>
-      <c r="XS25" s="11"/>
-      <c r="XT25" s="11"/>
-      <c r="XU25" s="11"/>
-      <c r="XV25" s="11"/>
-      <c r="XW25" s="11"/>
-      <c r="XX25" s="11"/>
-      <c r="XY25" s="11"/>
-      <c r="XZ25" s="11"/>
-      <c r="YA25" s="11"/>
-      <c r="YB25" s="11"/>
-      <c r="YC25" s="11"/>
-      <c r="YD25" s="11"/>
-      <c r="YE25" s="11"/>
-      <c r="YF25" s="11"/>
-      <c r="YG25" s="11"/>
-      <c r="YH25" s="11"/>
-      <c r="YI25" s="11"/>
-      <c r="YJ25" s="11"/>
-      <c r="YK25" s="11"/>
-      <c r="YL25" s="11"/>
-      <c r="YM25" s="11"/>
-      <c r="YN25" s="11"/>
-      <c r="YO25" s="11"/>
-      <c r="YP25" s="11"/>
-      <c r="YQ25" s="11"/>
-      <c r="YR25" s="11"/>
-      <c r="YS25" s="11"/>
-      <c r="YT25" s="11"/>
-      <c r="YU25" s="11"/>
-      <c r="YV25" s="11"/>
-      <c r="YW25" s="11"/>
-      <c r="YX25" s="11"/>
-      <c r="YY25" s="11"/>
-      <c r="YZ25" s="11"/>
-      <c r="ZA25" s="11"/>
-      <c r="ZB25" s="11"/>
-      <c r="ZC25" s="11"/>
-      <c r="ZD25" s="11"/>
-      <c r="ZE25" s="11"/>
-      <c r="ZF25" s="11"/>
-      <c r="ZG25" s="11"/>
-      <c r="ZH25" s="11"/>
-      <c r="ZI25" s="11"/>
-      <c r="ZJ25" s="11"/>
-      <c r="ZK25" s="11"/>
-      <c r="ZL25" s="11"/>
-      <c r="ZM25" s="11"/>
-      <c r="ZN25" s="11"/>
-      <c r="ZO25" s="11"/>
-      <c r="ZP25" s="11"/>
-      <c r="ZQ25" s="11"/>
-      <c r="ZR25" s="11"/>
-      <c r="ZS25" s="11"/>
-      <c r="ZT25" s="11"/>
-      <c r="ZU25" s="11"/>
-      <c r="ZV25" s="11"/>
-      <c r="ZW25" s="11"/>
-      <c r="ZX25" s="11"/>
-      <c r="ZY25" s="11"/>
-      <c r="ZZ25" s="11"/>
-      <c r="AAA25" s="11"/>
-      <c r="AAB25" s="11"/>
-      <c r="AAC25" s="11"/>
-      <c r="AAD25" s="11"/>
-      <c r="AAE25" s="11"/>
-      <c r="AAF25" s="11"/>
-      <c r="AAG25" s="11"/>
-      <c r="AAH25" s="11"/>
-      <c r="AAI25" s="11"/>
-      <c r="AAJ25" s="11"/>
-      <c r="AAK25" s="11"/>
-      <c r="AAL25" s="11"/>
-      <c r="AAM25" s="11"/>
-      <c r="AAN25" s="11"/>
-      <c r="AAO25" s="11"/>
-      <c r="AAP25" s="11"/>
-      <c r="AAQ25" s="11"/>
-      <c r="AAR25" s="11"/>
-      <c r="AAS25" s="11"/>
-      <c r="AAT25" s="11"/>
-      <c r="AAU25" s="11"/>
-      <c r="AAV25" s="11"/>
-      <c r="AAW25" s="11"/>
-      <c r="AAX25" s="11"/>
-      <c r="AAY25" s="11"/>
-      <c r="AAZ25" s="11"/>
-      <c r="ABA25" s="11"/>
-      <c r="ABB25" s="11"/>
-      <c r="ABC25" s="11"/>
-      <c r="ABD25" s="11"/>
-      <c r="ABE25" s="11"/>
-      <c r="ABF25" s="11"/>
-      <c r="ABG25" s="11"/>
-      <c r="ABH25" s="11"/>
-      <c r="ABI25" s="11"/>
-      <c r="ABJ25" s="11"/>
-      <c r="ABK25" s="11"/>
-      <c r="ABL25" s="11"/>
-      <c r="ABM25" s="11"/>
-      <c r="ABN25" s="11"/>
-      <c r="ABO25" s="11"/>
-      <c r="ABP25" s="11"/>
-      <c r="ABQ25" s="11"/>
-      <c r="ABR25" s="11"/>
-      <c r="ABS25" s="11"/>
-      <c r="ABT25" s="11"/>
-      <c r="ABU25" s="11"/>
-      <c r="ABV25" s="11"/>
-      <c r="ABW25" s="11"/>
-      <c r="ABX25" s="11"/>
-      <c r="ABY25" s="11"/>
-      <c r="ABZ25" s="11"/>
-      <c r="ACA25" s="11"/>
-      <c r="ACB25" s="11"/>
-      <c r="ACC25" s="11"/>
-      <c r="ACD25" s="11"/>
-      <c r="ACE25" s="11"/>
-      <c r="ACF25" s="11"/>
-      <c r="ACG25" s="11"/>
-      <c r="ACH25" s="11"/>
-      <c r="ACI25" s="11"/>
-      <c r="ACJ25" s="11"/>
-      <c r="ACK25" s="11"/>
-      <c r="ACL25" s="11"/>
-      <c r="ACM25" s="11"/>
-      <c r="ACN25" s="11"/>
-      <c r="ACO25" s="11"/>
-      <c r="ACP25" s="11"/>
-      <c r="ACQ25" s="11"/>
-      <c r="ACR25" s="11"/>
-      <c r="ACS25" s="11"/>
-      <c r="ACT25" s="11"/>
-      <c r="ACU25" s="11"/>
-      <c r="ACV25" s="11"/>
-      <c r="ACW25" s="11"/>
-      <c r="ACX25" s="11"/>
-      <c r="ACY25" s="11"/>
-      <c r="ACZ25" s="11"/>
-      <c r="ADA25" s="11"/>
-      <c r="ADB25" s="11"/>
-      <c r="ADC25" s="11"/>
-      <c r="ADD25" s="11"/>
-      <c r="ADE25" s="11"/>
-      <c r="ADF25" s="11"/>
-      <c r="ADG25" s="11"/>
-      <c r="ADH25" s="11"/>
-      <c r="ADI25" s="11"/>
-      <c r="ADJ25" s="11"/>
-      <c r="ADK25" s="11"/>
-      <c r="ADL25" s="11"/>
-      <c r="ADM25" s="11"/>
-      <c r="ADN25" s="11"/>
-      <c r="ADO25" s="11"/>
-      <c r="ADP25" s="11"/>
-      <c r="ADQ25" s="11"/>
-      <c r="ADR25" s="11"/>
-      <c r="ADS25" s="11"/>
-      <c r="ADT25" s="11"/>
-      <c r="ADU25" s="11"/>
-      <c r="ADV25" s="11"/>
-      <c r="ADW25" s="11"/>
-      <c r="ADX25" s="11"/>
-      <c r="ADY25" s="11"/>
-      <c r="ADZ25" s="11"/>
-      <c r="AEA25" s="11"/>
-      <c r="AEB25" s="11"/>
-      <c r="AEC25" s="11"/>
-      <c r="AED25" s="11"/>
-      <c r="AEE25" s="11"/>
-      <c r="AEF25" s="11"/>
-      <c r="AEG25" s="11"/>
-      <c r="AEH25" s="11"/>
-      <c r="AEI25" s="11"/>
-      <c r="AEJ25" s="11"/>
-      <c r="AEK25" s="11"/>
-      <c r="AEL25" s="11"/>
-      <c r="AEM25" s="11"/>
-      <c r="AEN25" s="11"/>
-      <c r="AEO25" s="11"/>
-      <c r="AEP25" s="11"/>
-      <c r="AEQ25" s="11"/>
-      <c r="AER25" s="11"/>
-      <c r="AES25" s="11"/>
-      <c r="AET25" s="11"/>
-      <c r="AEU25" s="11"/>
-      <c r="AEV25" s="11"/>
-      <c r="AEW25" s="11"/>
-      <c r="AEX25" s="11"/>
-      <c r="AEY25" s="11"/>
-      <c r="AEZ25" s="11"/>
-      <c r="AFA25" s="11"/>
-      <c r="AFB25" s="11"/>
-      <c r="AFC25" s="11"/>
-      <c r="AFD25" s="11"/>
-      <c r="AFE25" s="11"/>
-      <c r="AFF25" s="11"/>
-      <c r="AFG25" s="11"/>
-      <c r="AFH25" s="11"/>
-      <c r="AFI25" s="11"/>
-      <c r="AFJ25" s="11"/>
-      <c r="AFK25" s="11"/>
-      <c r="AFL25" s="11"/>
-      <c r="AFM25" s="11"/>
-      <c r="AFN25" s="11"/>
-      <c r="AFO25" s="11"/>
-      <c r="AFP25" s="11"/>
-      <c r="AFQ25" s="11"/>
-      <c r="AFR25" s="11"/>
-      <c r="AFS25" s="11"/>
-      <c r="AFT25" s="11"/>
-      <c r="AFU25" s="11"/>
-      <c r="AFV25" s="11"/>
-      <c r="AFW25" s="11"/>
-      <c r="AFX25" s="11"/>
-      <c r="AFY25" s="11"/>
-      <c r="AFZ25" s="11"/>
-      <c r="AGA25" s="11"/>
-      <c r="AGB25" s="11"/>
-      <c r="AGC25" s="11"/>
-      <c r="AGD25" s="11"/>
-      <c r="AGE25" s="11"/>
-      <c r="AGF25" s="11"/>
-      <c r="AGG25" s="11"/>
-      <c r="AGH25" s="11"/>
-      <c r="AGI25" s="11"/>
-      <c r="AGJ25" s="11"/>
-      <c r="AGK25" s="11"/>
-      <c r="AGL25" s="11"/>
-      <c r="AGM25" s="11"/>
-      <c r="AGN25" s="11"/>
-      <c r="AGO25" s="11"/>
-      <c r="AGP25" s="11"/>
-      <c r="AGQ25" s="11"/>
-      <c r="AGR25" s="11"/>
-      <c r="AGS25" s="11"/>
-      <c r="AGT25" s="11"/>
-      <c r="AGU25" s="11"/>
-      <c r="AGV25" s="11"/>
-      <c r="AGW25" s="11"/>
-      <c r="AGX25" s="11"/>
-      <c r="AGY25" s="11"/>
-      <c r="AGZ25" s="11"/>
-      <c r="AHA25" s="11"/>
-      <c r="AHB25" s="11"/>
-      <c r="AHC25" s="11"/>
-      <c r="AHD25" s="11"/>
-      <c r="AHE25" s="11"/>
-      <c r="AHF25" s="11"/>
-      <c r="AHG25" s="11"/>
-      <c r="AHH25" s="11"/>
-      <c r="AHI25" s="11"/>
-      <c r="AHJ25" s="11"/>
-      <c r="AHK25" s="11"/>
-      <c r="AHL25" s="11"/>
-      <c r="AHM25" s="11"/>
-      <c r="AHN25" s="11"/>
-      <c r="AHO25" s="11"/>
-      <c r="AHP25" s="11"/>
-      <c r="AHQ25" s="11"/>
-      <c r="AHR25" s="11"/>
-      <c r="AHS25" s="11"/>
-      <c r="AHT25" s="11"/>
-      <c r="AHU25" s="11"/>
-      <c r="AHV25" s="11"/>
-      <c r="AHW25" s="11"/>
-      <c r="AHX25" s="11"/>
-      <c r="AHY25" s="11"/>
-      <c r="AHZ25" s="11"/>
-      <c r="AIA25" s="11"/>
-      <c r="AIB25" s="11"/>
-      <c r="AIC25" s="11"/>
-      <c r="AID25" s="11"/>
-      <c r="AIE25" s="11"/>
-      <c r="AIF25" s="11"/>
-      <c r="AIG25" s="11"/>
-      <c r="AIH25" s="11"/>
-      <c r="AII25" s="11"/>
-      <c r="AIJ25" s="11"/>
-      <c r="AIK25" s="11"/>
-      <c r="AIL25" s="11"/>
-      <c r="AIM25" s="11"/>
-      <c r="AIN25" s="11"/>
-      <c r="AIO25" s="11"/>
-      <c r="AIP25" s="11"/>
-      <c r="AIQ25" s="11"/>
-      <c r="AIR25" s="11"/>
-      <c r="AIS25" s="11"/>
-      <c r="AIT25" s="11"/>
-      <c r="AIU25" s="11"/>
-      <c r="AIV25" s="11"/>
-      <c r="AIW25" s="11"/>
-      <c r="AIX25" s="11"/>
-      <c r="AIY25" s="11"/>
-      <c r="AIZ25" s="11"/>
-      <c r="AJA25" s="11"/>
-      <c r="AJB25" s="11"/>
-      <c r="AJC25" s="11"/>
-      <c r="AJD25" s="11"/>
-      <c r="AJE25" s="11"/>
-      <c r="AJF25" s="11"/>
-      <c r="AJG25" s="11"/>
-      <c r="AJH25" s="11"/>
-      <c r="AJI25" s="11"/>
-      <c r="AJJ25" s="11"/>
-      <c r="AJK25" s="11"/>
-      <c r="AJL25" s="11"/>
-      <c r="AJM25" s="11"/>
-      <c r="AJN25" s="11"/>
-      <c r="AJO25" s="11"/>
-      <c r="AJP25" s="11"/>
-      <c r="AJQ25" s="11"/>
-      <c r="AJR25" s="11"/>
-      <c r="AJS25" s="11"/>
-      <c r="AJT25" s="11"/>
-      <c r="AJU25" s="11"/>
-      <c r="AJV25" s="11"/>
-      <c r="AJW25" s="11"/>
-      <c r="AJX25" s="11"/>
-      <c r="AJY25" s="11"/>
-      <c r="AJZ25" s="11"/>
-      <c r="AKA25" s="11"/>
-      <c r="AKB25" s="11"/>
-      <c r="AKC25" s="11"/>
-      <c r="AKD25" s="11"/>
-      <c r="AKE25" s="11"/>
-      <c r="AKF25" s="11"/>
-      <c r="AKG25" s="11"/>
-      <c r="AKH25" s="11"/>
-      <c r="AKI25" s="11"/>
-      <c r="AKJ25" s="11"/>
-      <c r="AKK25" s="11"/>
-      <c r="AKL25" s="11"/>
-      <c r="AKM25" s="11"/>
-      <c r="AKN25" s="11"/>
-      <c r="AKO25" s="11"/>
-      <c r="AKP25" s="11"/>
-      <c r="AKQ25" s="11"/>
-      <c r="AKR25" s="11"/>
-      <c r="AKS25" s="11"/>
-      <c r="AKT25" s="11"/>
-      <c r="AKU25" s="11"/>
-      <c r="AKV25" s="11"/>
-      <c r="AKW25" s="11"/>
-      <c r="AKX25" s="11"/>
-      <c r="AKY25" s="11"/>
-      <c r="AKZ25" s="11"/>
-      <c r="ALA25" s="11"/>
-      <c r="ALB25" s="11"/>
-      <c r="ALC25" s="11"/>
-      <c r="ALD25" s="11"/>
-      <c r="ALE25" s="11"/>
-      <c r="ALF25" s="11"/>
-      <c r="ALG25" s="11"/>
-      <c r="ALH25" s="11"/>
-      <c r="ALI25" s="11"/>
-      <c r="ALJ25" s="11"/>
-      <c r="ALK25" s="11"/>
-      <c r="ALL25" s="11"/>
-      <c r="ALM25" s="11"/>
-      <c r="ALN25" s="11"/>
-      <c r="ALO25" s="11"/>
-      <c r="ALP25" s="11"/>
-      <c r="ALQ25" s="11"/>
-      <c r="ALR25" s="11"/>
-      <c r="ALS25" s="11"/>
-      <c r="ALT25" s="11"/>
-      <c r="ALU25" s="11"/>
-      <c r="ALV25" s="11"/>
-      <c r="ALW25" s="11"/>
-      <c r="ALX25" s="11"/>
-      <c r="ALY25" s="11"/>
-      <c r="ALZ25" s="11"/>
-      <c r="AMA25" s="11"/>
-      <c r="AMB25" s="11"/>
-      <c r="AMC25" s="11"/>
-      <c r="AMD25" s="11"/>
-      <c r="AME25" s="11"/>
-      <c r="AMF25" s="11"/>
-      <c r="AMG25" s="11"/>
-      <c r="AMH25" s="11"/>
-      <c r="AMI25" s="11"/>
-      <c r="AMJ25" s="11"/>
-      <c r="AMK25" s="11"/>
-    </row>
-    <row r="26" spans="1:1025" s="12" customFormat="1" ht="114">
-      <c r="A26" s="13">
-        <v>23</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>82</v>
+      <c r="G26" s="33" t="s">
+        <v>108</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -21490,12 +21508,1052 @@
       <c r="AMJ26" s="11"/>
       <c r="AMK26" s="11"/>
     </row>
-    <row r="27" spans="1:1025" ht="18" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
+    <row r="27" spans="1:1025" s="12" customFormat="1" ht="114">
+      <c r="A27" s="13">
+        <v>23</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="11"/>
+      <c r="AT27" s="11"/>
+      <c r="AU27" s="11"/>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="11"/>
+      <c r="AZ27" s="11"/>
+      <c r="BA27" s="11"/>
+      <c r="BB27" s="11"/>
+      <c r="BC27" s="11"/>
+      <c r="BD27" s="11"/>
+      <c r="BE27" s="11"/>
+      <c r="BF27" s="11"/>
+      <c r="BG27" s="11"/>
+      <c r="BH27" s="11"/>
+      <c r="BI27" s="11"/>
+      <c r="BJ27" s="11"/>
+      <c r="BK27" s="11"/>
+      <c r="BL27" s="11"/>
+      <c r="BM27" s="11"/>
+      <c r="BN27" s="11"/>
+      <c r="BO27" s="11"/>
+      <c r="BP27" s="11"/>
+      <c r="BQ27" s="11"/>
+      <c r="BR27" s="11"/>
+      <c r="BS27" s="11"/>
+      <c r="BT27" s="11"/>
+      <c r="BU27" s="11"/>
+      <c r="BV27" s="11"/>
+      <c r="BW27" s="11"/>
+      <c r="BX27" s="11"/>
+      <c r="BY27" s="11"/>
+      <c r="BZ27" s="11"/>
+      <c r="CA27" s="11"/>
+      <c r="CB27" s="11"/>
+      <c r="CC27" s="11"/>
+      <c r="CD27" s="11"/>
+      <c r="CE27" s="11"/>
+      <c r="CF27" s="11"/>
+      <c r="CG27" s="11"/>
+      <c r="CH27" s="11"/>
+      <c r="CI27" s="11"/>
+      <c r="CJ27" s="11"/>
+      <c r="CK27" s="11"/>
+      <c r="CL27" s="11"/>
+      <c r="CM27" s="11"/>
+      <c r="CN27" s="11"/>
+      <c r="CO27" s="11"/>
+      <c r="CP27" s="11"/>
+      <c r="CQ27" s="11"/>
+      <c r="CR27" s="11"/>
+      <c r="CS27" s="11"/>
+      <c r="CT27" s="11"/>
+      <c r="CU27" s="11"/>
+      <c r="CV27" s="11"/>
+      <c r="CW27" s="11"/>
+      <c r="CX27" s="11"/>
+      <c r="CY27" s="11"/>
+      <c r="CZ27" s="11"/>
+      <c r="DA27" s="11"/>
+      <c r="DB27" s="11"/>
+      <c r="DC27" s="11"/>
+      <c r="DD27" s="11"/>
+      <c r="DE27" s="11"/>
+      <c r="DF27" s="11"/>
+      <c r="DG27" s="11"/>
+      <c r="DH27" s="11"/>
+      <c r="DI27" s="11"/>
+      <c r="DJ27" s="11"/>
+      <c r="DK27" s="11"/>
+      <c r="DL27" s="11"/>
+      <c r="DM27" s="11"/>
+      <c r="DN27" s="11"/>
+      <c r="DO27" s="11"/>
+      <c r="DP27" s="11"/>
+      <c r="DQ27" s="11"/>
+      <c r="DR27" s="11"/>
+      <c r="DS27" s="11"/>
+      <c r="DT27" s="11"/>
+      <c r="DU27" s="11"/>
+      <c r="DV27" s="11"/>
+      <c r="DW27" s="11"/>
+      <c r="DX27" s="11"/>
+      <c r="DY27" s="11"/>
+      <c r="DZ27" s="11"/>
+      <c r="EA27" s="11"/>
+      <c r="EB27" s="11"/>
+      <c r="EC27" s="11"/>
+      <c r="ED27" s="11"/>
+      <c r="EE27" s="11"/>
+      <c r="EF27" s="11"/>
+      <c r="EG27" s="11"/>
+      <c r="EH27" s="11"/>
+      <c r="EI27" s="11"/>
+      <c r="EJ27" s="11"/>
+      <c r="EK27" s="11"/>
+      <c r="EL27" s="11"/>
+      <c r="EM27" s="11"/>
+      <c r="EN27" s="11"/>
+      <c r="EO27" s="11"/>
+      <c r="EP27" s="11"/>
+      <c r="EQ27" s="11"/>
+      <c r="ER27" s="11"/>
+      <c r="ES27" s="11"/>
+      <c r="ET27" s="11"/>
+      <c r="EU27" s="11"/>
+      <c r="EV27" s="11"/>
+      <c r="EW27" s="11"/>
+      <c r="EX27" s="11"/>
+      <c r="EY27" s="11"/>
+      <c r="EZ27" s="11"/>
+      <c r="FA27" s="11"/>
+      <c r="FB27" s="11"/>
+      <c r="FC27" s="11"/>
+      <c r="FD27" s="11"/>
+      <c r="FE27" s="11"/>
+      <c r="FF27" s="11"/>
+      <c r="FG27" s="11"/>
+      <c r="FH27" s="11"/>
+      <c r="FI27" s="11"/>
+      <c r="FJ27" s="11"/>
+      <c r="FK27" s="11"/>
+      <c r="FL27" s="11"/>
+      <c r="FM27" s="11"/>
+      <c r="FN27" s="11"/>
+      <c r="FO27" s="11"/>
+      <c r="FP27" s="11"/>
+      <c r="FQ27" s="11"/>
+      <c r="FR27" s="11"/>
+      <c r="FS27" s="11"/>
+      <c r="FT27" s="11"/>
+      <c r="FU27" s="11"/>
+      <c r="FV27" s="11"/>
+      <c r="FW27" s="11"/>
+      <c r="FX27" s="11"/>
+      <c r="FY27" s="11"/>
+      <c r="FZ27" s="11"/>
+      <c r="GA27" s="11"/>
+      <c r="GB27" s="11"/>
+      <c r="GC27" s="11"/>
+      <c r="GD27" s="11"/>
+      <c r="GE27" s="11"/>
+      <c r="GF27" s="11"/>
+      <c r="GG27" s="11"/>
+      <c r="GH27" s="11"/>
+      <c r="GI27" s="11"/>
+      <c r="GJ27" s="11"/>
+      <c r="GK27" s="11"/>
+      <c r="GL27" s="11"/>
+      <c r="GM27" s="11"/>
+      <c r="GN27" s="11"/>
+      <c r="GO27" s="11"/>
+      <c r="GP27" s="11"/>
+      <c r="GQ27" s="11"/>
+      <c r="GR27" s="11"/>
+      <c r="GS27" s="11"/>
+      <c r="GT27" s="11"/>
+      <c r="GU27" s="11"/>
+      <c r="GV27" s="11"/>
+      <c r="GW27" s="11"/>
+      <c r="GX27" s="11"/>
+      <c r="GY27" s="11"/>
+      <c r="GZ27" s="11"/>
+      <c r="HA27" s="11"/>
+      <c r="HB27" s="11"/>
+      <c r="HC27" s="11"/>
+      <c r="HD27" s="11"/>
+      <c r="HE27" s="11"/>
+      <c r="HF27" s="11"/>
+      <c r="HG27" s="11"/>
+      <c r="HH27" s="11"/>
+      <c r="HI27" s="11"/>
+      <c r="HJ27" s="11"/>
+      <c r="HK27" s="11"/>
+      <c r="HL27" s="11"/>
+      <c r="HM27" s="11"/>
+      <c r="HN27" s="11"/>
+      <c r="HO27" s="11"/>
+      <c r="HP27" s="11"/>
+      <c r="HQ27" s="11"/>
+      <c r="HR27" s="11"/>
+      <c r="HS27" s="11"/>
+      <c r="HT27" s="11"/>
+      <c r="HU27" s="11"/>
+      <c r="HV27" s="11"/>
+      <c r="HW27" s="11"/>
+      <c r="HX27" s="11"/>
+      <c r="HY27" s="11"/>
+      <c r="HZ27" s="11"/>
+      <c r="IA27" s="11"/>
+      <c r="IB27" s="11"/>
+      <c r="IC27" s="11"/>
+      <c r="ID27" s="11"/>
+      <c r="IE27" s="11"/>
+      <c r="IF27" s="11"/>
+      <c r="IG27" s="11"/>
+      <c r="IH27" s="11"/>
+      <c r="II27" s="11"/>
+      <c r="IJ27" s="11"/>
+      <c r="IK27" s="11"/>
+      <c r="IL27" s="11"/>
+      <c r="IM27" s="11"/>
+      <c r="IN27" s="11"/>
+      <c r="IO27" s="11"/>
+      <c r="IP27" s="11"/>
+      <c r="IQ27" s="11"/>
+      <c r="IR27" s="11"/>
+      <c r="IS27" s="11"/>
+      <c r="IT27" s="11"/>
+      <c r="IU27" s="11"/>
+      <c r="IV27" s="11"/>
+      <c r="IW27" s="11"/>
+      <c r="IX27" s="11"/>
+      <c r="IY27" s="11"/>
+      <c r="IZ27" s="11"/>
+      <c r="JA27" s="11"/>
+      <c r="JB27" s="11"/>
+      <c r="JC27" s="11"/>
+      <c r="JD27" s="11"/>
+      <c r="JE27" s="11"/>
+      <c r="JF27" s="11"/>
+      <c r="JG27" s="11"/>
+      <c r="JH27" s="11"/>
+      <c r="JI27" s="11"/>
+      <c r="JJ27" s="11"/>
+      <c r="JK27" s="11"/>
+      <c r="JL27" s="11"/>
+      <c r="JM27" s="11"/>
+      <c r="JN27" s="11"/>
+      <c r="JO27" s="11"/>
+      <c r="JP27" s="11"/>
+      <c r="JQ27" s="11"/>
+      <c r="JR27" s="11"/>
+      <c r="JS27" s="11"/>
+      <c r="JT27" s="11"/>
+      <c r="JU27" s="11"/>
+      <c r="JV27" s="11"/>
+      <c r="JW27" s="11"/>
+      <c r="JX27" s="11"/>
+      <c r="JY27" s="11"/>
+      <c r="JZ27" s="11"/>
+      <c r="KA27" s="11"/>
+      <c r="KB27" s="11"/>
+      <c r="KC27" s="11"/>
+      <c r="KD27" s="11"/>
+      <c r="KE27" s="11"/>
+      <c r="KF27" s="11"/>
+      <c r="KG27" s="11"/>
+      <c r="KH27" s="11"/>
+      <c r="KI27" s="11"/>
+      <c r="KJ27" s="11"/>
+      <c r="KK27" s="11"/>
+      <c r="KL27" s="11"/>
+      <c r="KM27" s="11"/>
+      <c r="KN27" s="11"/>
+      <c r="KO27" s="11"/>
+      <c r="KP27" s="11"/>
+      <c r="KQ27" s="11"/>
+      <c r="KR27" s="11"/>
+      <c r="KS27" s="11"/>
+      <c r="KT27" s="11"/>
+      <c r="KU27" s="11"/>
+      <c r="KV27" s="11"/>
+      <c r="KW27" s="11"/>
+      <c r="KX27" s="11"/>
+      <c r="KY27" s="11"/>
+      <c r="KZ27" s="11"/>
+      <c r="LA27" s="11"/>
+      <c r="LB27" s="11"/>
+      <c r="LC27" s="11"/>
+      <c r="LD27" s="11"/>
+      <c r="LE27" s="11"/>
+      <c r="LF27" s="11"/>
+      <c r="LG27" s="11"/>
+      <c r="LH27" s="11"/>
+      <c r="LI27" s="11"/>
+      <c r="LJ27" s="11"/>
+      <c r="LK27" s="11"/>
+      <c r="LL27" s="11"/>
+      <c r="LM27" s="11"/>
+      <c r="LN27" s="11"/>
+      <c r="LO27" s="11"/>
+      <c r="LP27" s="11"/>
+      <c r="LQ27" s="11"/>
+      <c r="LR27" s="11"/>
+      <c r="LS27" s="11"/>
+      <c r="LT27" s="11"/>
+      <c r="LU27" s="11"/>
+      <c r="LV27" s="11"/>
+      <c r="LW27" s="11"/>
+      <c r="LX27" s="11"/>
+      <c r="LY27" s="11"/>
+      <c r="LZ27" s="11"/>
+      <c r="MA27" s="11"/>
+      <c r="MB27" s="11"/>
+      <c r="MC27" s="11"/>
+      <c r="MD27" s="11"/>
+      <c r="ME27" s="11"/>
+      <c r="MF27" s="11"/>
+      <c r="MG27" s="11"/>
+      <c r="MH27" s="11"/>
+      <c r="MI27" s="11"/>
+      <c r="MJ27" s="11"/>
+      <c r="MK27" s="11"/>
+      <c r="ML27" s="11"/>
+      <c r="MM27" s="11"/>
+      <c r="MN27" s="11"/>
+      <c r="MO27" s="11"/>
+      <c r="MP27" s="11"/>
+      <c r="MQ27" s="11"/>
+      <c r="MR27" s="11"/>
+      <c r="MS27" s="11"/>
+      <c r="MT27" s="11"/>
+      <c r="MU27" s="11"/>
+      <c r="MV27" s="11"/>
+      <c r="MW27" s="11"/>
+      <c r="MX27" s="11"/>
+      <c r="MY27" s="11"/>
+      <c r="MZ27" s="11"/>
+      <c r="NA27" s="11"/>
+      <c r="NB27" s="11"/>
+      <c r="NC27" s="11"/>
+      <c r="ND27" s="11"/>
+      <c r="NE27" s="11"/>
+      <c r="NF27" s="11"/>
+      <c r="NG27" s="11"/>
+      <c r="NH27" s="11"/>
+      <c r="NI27" s="11"/>
+      <c r="NJ27" s="11"/>
+      <c r="NK27" s="11"/>
+      <c r="NL27" s="11"/>
+      <c r="NM27" s="11"/>
+      <c r="NN27" s="11"/>
+      <c r="NO27" s="11"/>
+      <c r="NP27" s="11"/>
+      <c r="NQ27" s="11"/>
+      <c r="NR27" s="11"/>
+      <c r="NS27" s="11"/>
+      <c r="NT27" s="11"/>
+      <c r="NU27" s="11"/>
+      <c r="NV27" s="11"/>
+      <c r="NW27" s="11"/>
+      <c r="NX27" s="11"/>
+      <c r="NY27" s="11"/>
+      <c r="NZ27" s="11"/>
+      <c r="OA27" s="11"/>
+      <c r="OB27" s="11"/>
+      <c r="OC27" s="11"/>
+      <c r="OD27" s="11"/>
+      <c r="OE27" s="11"/>
+      <c r="OF27" s="11"/>
+      <c r="OG27" s="11"/>
+      <c r="OH27" s="11"/>
+      <c r="OI27" s="11"/>
+      <c r="OJ27" s="11"/>
+      <c r="OK27" s="11"/>
+      <c r="OL27" s="11"/>
+      <c r="OM27" s="11"/>
+      <c r="ON27" s="11"/>
+      <c r="OO27" s="11"/>
+      <c r="OP27" s="11"/>
+      <c r="OQ27" s="11"/>
+      <c r="OR27" s="11"/>
+      <c r="OS27" s="11"/>
+      <c r="OT27" s="11"/>
+      <c r="OU27" s="11"/>
+      <c r="OV27" s="11"/>
+      <c r="OW27" s="11"/>
+      <c r="OX27" s="11"/>
+      <c r="OY27" s="11"/>
+      <c r="OZ27" s="11"/>
+      <c r="PA27" s="11"/>
+      <c r="PB27" s="11"/>
+      <c r="PC27" s="11"/>
+      <c r="PD27" s="11"/>
+      <c r="PE27" s="11"/>
+      <c r="PF27" s="11"/>
+      <c r="PG27" s="11"/>
+      <c r="PH27" s="11"/>
+      <c r="PI27" s="11"/>
+      <c r="PJ27" s="11"/>
+      <c r="PK27" s="11"/>
+      <c r="PL27" s="11"/>
+      <c r="PM27" s="11"/>
+      <c r="PN27" s="11"/>
+      <c r="PO27" s="11"/>
+      <c r="PP27" s="11"/>
+      <c r="PQ27" s="11"/>
+      <c r="PR27" s="11"/>
+      <c r="PS27" s="11"/>
+      <c r="PT27" s="11"/>
+      <c r="PU27" s="11"/>
+      <c r="PV27" s="11"/>
+      <c r="PW27" s="11"/>
+      <c r="PX27" s="11"/>
+      <c r="PY27" s="11"/>
+      <c r="PZ27" s="11"/>
+      <c r="QA27" s="11"/>
+      <c r="QB27" s="11"/>
+      <c r="QC27" s="11"/>
+      <c r="QD27" s="11"/>
+      <c r="QE27" s="11"/>
+      <c r="QF27" s="11"/>
+      <c r="QG27" s="11"/>
+      <c r="QH27" s="11"/>
+      <c r="QI27" s="11"/>
+      <c r="QJ27" s="11"/>
+      <c r="QK27" s="11"/>
+      <c r="QL27" s="11"/>
+      <c r="QM27" s="11"/>
+      <c r="QN27" s="11"/>
+      <c r="QO27" s="11"/>
+      <c r="QP27" s="11"/>
+      <c r="QQ27" s="11"/>
+      <c r="QR27" s="11"/>
+      <c r="QS27" s="11"/>
+      <c r="QT27" s="11"/>
+      <c r="QU27" s="11"/>
+      <c r="QV27" s="11"/>
+      <c r="QW27" s="11"/>
+      <c r="QX27" s="11"/>
+      <c r="QY27" s="11"/>
+      <c r="QZ27" s="11"/>
+      <c r="RA27" s="11"/>
+      <c r="RB27" s="11"/>
+      <c r="RC27" s="11"/>
+      <c r="RD27" s="11"/>
+      <c r="RE27" s="11"/>
+      <c r="RF27" s="11"/>
+      <c r="RG27" s="11"/>
+      <c r="RH27" s="11"/>
+      <c r="RI27" s="11"/>
+      <c r="RJ27" s="11"/>
+      <c r="RK27" s="11"/>
+      <c r="RL27" s="11"/>
+      <c r="RM27" s="11"/>
+      <c r="RN27" s="11"/>
+      <c r="RO27" s="11"/>
+      <c r="RP27" s="11"/>
+      <c r="RQ27" s="11"/>
+      <c r="RR27" s="11"/>
+      <c r="RS27" s="11"/>
+      <c r="RT27" s="11"/>
+      <c r="RU27" s="11"/>
+      <c r="RV27" s="11"/>
+      <c r="RW27" s="11"/>
+      <c r="RX27" s="11"/>
+      <c r="RY27" s="11"/>
+      <c r="RZ27" s="11"/>
+      <c r="SA27" s="11"/>
+      <c r="SB27" s="11"/>
+      <c r="SC27" s="11"/>
+      <c r="SD27" s="11"/>
+      <c r="SE27" s="11"/>
+      <c r="SF27" s="11"/>
+      <c r="SG27" s="11"/>
+      <c r="SH27" s="11"/>
+      <c r="SI27" s="11"/>
+      <c r="SJ27" s="11"/>
+      <c r="SK27" s="11"/>
+      <c r="SL27" s="11"/>
+      <c r="SM27" s="11"/>
+      <c r="SN27" s="11"/>
+      <c r="SO27" s="11"/>
+      <c r="SP27" s="11"/>
+      <c r="SQ27" s="11"/>
+      <c r="SR27" s="11"/>
+      <c r="SS27" s="11"/>
+      <c r="ST27" s="11"/>
+      <c r="SU27" s="11"/>
+      <c r="SV27" s="11"/>
+      <c r="SW27" s="11"/>
+      <c r="SX27" s="11"/>
+      <c r="SY27" s="11"/>
+      <c r="SZ27" s="11"/>
+      <c r="TA27" s="11"/>
+      <c r="TB27" s="11"/>
+      <c r="TC27" s="11"/>
+      <c r="TD27" s="11"/>
+      <c r="TE27" s="11"/>
+      <c r="TF27" s="11"/>
+      <c r="TG27" s="11"/>
+      <c r="TH27" s="11"/>
+      <c r="TI27" s="11"/>
+      <c r="TJ27" s="11"/>
+      <c r="TK27" s="11"/>
+      <c r="TL27" s="11"/>
+      <c r="TM27" s="11"/>
+      <c r="TN27" s="11"/>
+      <c r="TO27" s="11"/>
+      <c r="TP27" s="11"/>
+      <c r="TQ27" s="11"/>
+      <c r="TR27" s="11"/>
+      <c r="TS27" s="11"/>
+      <c r="TT27" s="11"/>
+      <c r="TU27" s="11"/>
+      <c r="TV27" s="11"/>
+      <c r="TW27" s="11"/>
+      <c r="TX27" s="11"/>
+      <c r="TY27" s="11"/>
+      <c r="TZ27" s="11"/>
+      <c r="UA27" s="11"/>
+      <c r="UB27" s="11"/>
+      <c r="UC27" s="11"/>
+      <c r="UD27" s="11"/>
+      <c r="UE27" s="11"/>
+      <c r="UF27" s="11"/>
+      <c r="UG27" s="11"/>
+      <c r="UH27" s="11"/>
+      <c r="UI27" s="11"/>
+      <c r="UJ27" s="11"/>
+      <c r="UK27" s="11"/>
+      <c r="UL27" s="11"/>
+      <c r="UM27" s="11"/>
+      <c r="UN27" s="11"/>
+      <c r="UO27" s="11"/>
+      <c r="UP27" s="11"/>
+      <c r="UQ27" s="11"/>
+      <c r="UR27" s="11"/>
+      <c r="US27" s="11"/>
+      <c r="UT27" s="11"/>
+      <c r="UU27" s="11"/>
+      <c r="UV27" s="11"/>
+      <c r="UW27" s="11"/>
+      <c r="UX27" s="11"/>
+      <c r="UY27" s="11"/>
+      <c r="UZ27" s="11"/>
+      <c r="VA27" s="11"/>
+      <c r="VB27" s="11"/>
+      <c r="VC27" s="11"/>
+      <c r="VD27" s="11"/>
+      <c r="VE27" s="11"/>
+      <c r="VF27" s="11"/>
+      <c r="VG27" s="11"/>
+      <c r="VH27" s="11"/>
+      <c r="VI27" s="11"/>
+      <c r="VJ27" s="11"/>
+      <c r="VK27" s="11"/>
+      <c r="VL27" s="11"/>
+      <c r="VM27" s="11"/>
+      <c r="VN27" s="11"/>
+      <c r="VO27" s="11"/>
+      <c r="VP27" s="11"/>
+      <c r="VQ27" s="11"/>
+      <c r="VR27" s="11"/>
+      <c r="VS27" s="11"/>
+      <c r="VT27" s="11"/>
+      <c r="VU27" s="11"/>
+      <c r="VV27" s="11"/>
+      <c r="VW27" s="11"/>
+      <c r="VX27" s="11"/>
+      <c r="VY27" s="11"/>
+      <c r="VZ27" s="11"/>
+      <c r="WA27" s="11"/>
+      <c r="WB27" s="11"/>
+      <c r="WC27" s="11"/>
+      <c r="WD27" s="11"/>
+      <c r="WE27" s="11"/>
+      <c r="WF27" s="11"/>
+      <c r="WG27" s="11"/>
+      <c r="WH27" s="11"/>
+      <c r="WI27" s="11"/>
+      <c r="WJ27" s="11"/>
+      <c r="WK27" s="11"/>
+      <c r="WL27" s="11"/>
+      <c r="WM27" s="11"/>
+      <c r="WN27" s="11"/>
+      <c r="WO27" s="11"/>
+      <c r="WP27" s="11"/>
+      <c r="WQ27" s="11"/>
+      <c r="WR27" s="11"/>
+      <c r="WS27" s="11"/>
+      <c r="WT27" s="11"/>
+      <c r="WU27" s="11"/>
+      <c r="WV27" s="11"/>
+      <c r="WW27" s="11"/>
+      <c r="WX27" s="11"/>
+      <c r="WY27" s="11"/>
+      <c r="WZ27" s="11"/>
+      <c r="XA27" s="11"/>
+      <c r="XB27" s="11"/>
+      <c r="XC27" s="11"/>
+      <c r="XD27" s="11"/>
+      <c r="XE27" s="11"/>
+      <c r="XF27" s="11"/>
+      <c r="XG27" s="11"/>
+      <c r="XH27" s="11"/>
+      <c r="XI27" s="11"/>
+      <c r="XJ27" s="11"/>
+      <c r="XK27" s="11"/>
+      <c r="XL27" s="11"/>
+      <c r="XM27" s="11"/>
+      <c r="XN27" s="11"/>
+      <c r="XO27" s="11"/>
+      <c r="XP27" s="11"/>
+      <c r="XQ27" s="11"/>
+      <c r="XR27" s="11"/>
+      <c r="XS27" s="11"/>
+      <c r="XT27" s="11"/>
+      <c r="XU27" s="11"/>
+      <c r="XV27" s="11"/>
+      <c r="XW27" s="11"/>
+      <c r="XX27" s="11"/>
+      <c r="XY27" s="11"/>
+      <c r="XZ27" s="11"/>
+      <c r="YA27" s="11"/>
+      <c r="YB27" s="11"/>
+      <c r="YC27" s="11"/>
+      <c r="YD27" s="11"/>
+      <c r="YE27" s="11"/>
+      <c r="YF27" s="11"/>
+      <c r="YG27" s="11"/>
+      <c r="YH27" s="11"/>
+      <c r="YI27" s="11"/>
+      <c r="YJ27" s="11"/>
+      <c r="YK27" s="11"/>
+      <c r="YL27" s="11"/>
+      <c r="YM27" s="11"/>
+      <c r="YN27" s="11"/>
+      <c r="YO27" s="11"/>
+      <c r="YP27" s="11"/>
+      <c r="YQ27" s="11"/>
+      <c r="YR27" s="11"/>
+      <c r="YS27" s="11"/>
+      <c r="YT27" s="11"/>
+      <c r="YU27" s="11"/>
+      <c r="YV27" s="11"/>
+      <c r="YW27" s="11"/>
+      <c r="YX27" s="11"/>
+      <c r="YY27" s="11"/>
+      <c r="YZ27" s="11"/>
+      <c r="ZA27" s="11"/>
+      <c r="ZB27" s="11"/>
+      <c r="ZC27" s="11"/>
+      <c r="ZD27" s="11"/>
+      <c r="ZE27" s="11"/>
+      <c r="ZF27" s="11"/>
+      <c r="ZG27" s="11"/>
+      <c r="ZH27" s="11"/>
+      <c r="ZI27" s="11"/>
+      <c r="ZJ27" s="11"/>
+      <c r="ZK27" s="11"/>
+      <c r="ZL27" s="11"/>
+      <c r="ZM27" s="11"/>
+      <c r="ZN27" s="11"/>
+      <c r="ZO27" s="11"/>
+      <c r="ZP27" s="11"/>
+      <c r="ZQ27" s="11"/>
+      <c r="ZR27" s="11"/>
+      <c r="ZS27" s="11"/>
+      <c r="ZT27" s="11"/>
+      <c r="ZU27" s="11"/>
+      <c r="ZV27" s="11"/>
+      <c r="ZW27" s="11"/>
+      <c r="ZX27" s="11"/>
+      <c r="ZY27" s="11"/>
+      <c r="ZZ27" s="11"/>
+      <c r="AAA27" s="11"/>
+      <c r="AAB27" s="11"/>
+      <c r="AAC27" s="11"/>
+      <c r="AAD27" s="11"/>
+      <c r="AAE27" s="11"/>
+      <c r="AAF27" s="11"/>
+      <c r="AAG27" s="11"/>
+      <c r="AAH27" s="11"/>
+      <c r="AAI27" s="11"/>
+      <c r="AAJ27" s="11"/>
+      <c r="AAK27" s="11"/>
+      <c r="AAL27" s="11"/>
+      <c r="AAM27" s="11"/>
+      <c r="AAN27" s="11"/>
+      <c r="AAO27" s="11"/>
+      <c r="AAP27" s="11"/>
+      <c r="AAQ27" s="11"/>
+      <c r="AAR27" s="11"/>
+      <c r="AAS27" s="11"/>
+      <c r="AAT27" s="11"/>
+      <c r="AAU27" s="11"/>
+      <c r="AAV27" s="11"/>
+      <c r="AAW27" s="11"/>
+      <c r="AAX27" s="11"/>
+      <c r="AAY27" s="11"/>
+      <c r="AAZ27" s="11"/>
+      <c r="ABA27" s="11"/>
+      <c r="ABB27" s="11"/>
+      <c r="ABC27" s="11"/>
+      <c r="ABD27" s="11"/>
+      <c r="ABE27" s="11"/>
+      <c r="ABF27" s="11"/>
+      <c r="ABG27" s="11"/>
+      <c r="ABH27" s="11"/>
+      <c r="ABI27" s="11"/>
+      <c r="ABJ27" s="11"/>
+      <c r="ABK27" s="11"/>
+      <c r="ABL27" s="11"/>
+      <c r="ABM27" s="11"/>
+      <c r="ABN27" s="11"/>
+      <c r="ABO27" s="11"/>
+      <c r="ABP27" s="11"/>
+      <c r="ABQ27" s="11"/>
+      <c r="ABR27" s="11"/>
+      <c r="ABS27" s="11"/>
+      <c r="ABT27" s="11"/>
+      <c r="ABU27" s="11"/>
+      <c r="ABV27" s="11"/>
+      <c r="ABW27" s="11"/>
+      <c r="ABX27" s="11"/>
+      <c r="ABY27" s="11"/>
+      <c r="ABZ27" s="11"/>
+      <c r="ACA27" s="11"/>
+      <c r="ACB27" s="11"/>
+      <c r="ACC27" s="11"/>
+      <c r="ACD27" s="11"/>
+      <c r="ACE27" s="11"/>
+      <c r="ACF27" s="11"/>
+      <c r="ACG27" s="11"/>
+      <c r="ACH27" s="11"/>
+      <c r="ACI27" s="11"/>
+      <c r="ACJ27" s="11"/>
+      <c r="ACK27" s="11"/>
+      <c r="ACL27" s="11"/>
+      <c r="ACM27" s="11"/>
+      <c r="ACN27" s="11"/>
+      <c r="ACO27" s="11"/>
+      <c r="ACP27" s="11"/>
+      <c r="ACQ27" s="11"/>
+      <c r="ACR27" s="11"/>
+      <c r="ACS27" s="11"/>
+      <c r="ACT27" s="11"/>
+      <c r="ACU27" s="11"/>
+      <c r="ACV27" s="11"/>
+      <c r="ACW27" s="11"/>
+      <c r="ACX27" s="11"/>
+      <c r="ACY27" s="11"/>
+      <c r="ACZ27" s="11"/>
+      <c r="ADA27" s="11"/>
+      <c r="ADB27" s="11"/>
+      <c r="ADC27" s="11"/>
+      <c r="ADD27" s="11"/>
+      <c r="ADE27" s="11"/>
+      <c r="ADF27" s="11"/>
+      <c r="ADG27" s="11"/>
+      <c r="ADH27" s="11"/>
+      <c r="ADI27" s="11"/>
+      <c r="ADJ27" s="11"/>
+      <c r="ADK27" s="11"/>
+      <c r="ADL27" s="11"/>
+      <c r="ADM27" s="11"/>
+      <c r="ADN27" s="11"/>
+      <c r="ADO27" s="11"/>
+      <c r="ADP27" s="11"/>
+      <c r="ADQ27" s="11"/>
+      <c r="ADR27" s="11"/>
+      <c r="ADS27" s="11"/>
+      <c r="ADT27" s="11"/>
+      <c r="ADU27" s="11"/>
+      <c r="ADV27" s="11"/>
+      <c r="ADW27" s="11"/>
+      <c r="ADX27" s="11"/>
+      <c r="ADY27" s="11"/>
+      <c r="ADZ27" s="11"/>
+      <c r="AEA27" s="11"/>
+      <c r="AEB27" s="11"/>
+      <c r="AEC27" s="11"/>
+      <c r="AED27" s="11"/>
+      <c r="AEE27" s="11"/>
+      <c r="AEF27" s="11"/>
+      <c r="AEG27" s="11"/>
+      <c r="AEH27" s="11"/>
+      <c r="AEI27" s="11"/>
+      <c r="AEJ27" s="11"/>
+      <c r="AEK27" s="11"/>
+      <c r="AEL27" s="11"/>
+      <c r="AEM27" s="11"/>
+      <c r="AEN27" s="11"/>
+      <c r="AEO27" s="11"/>
+      <c r="AEP27" s="11"/>
+      <c r="AEQ27" s="11"/>
+      <c r="AER27" s="11"/>
+      <c r="AES27" s="11"/>
+      <c r="AET27" s="11"/>
+      <c r="AEU27" s="11"/>
+      <c r="AEV27" s="11"/>
+      <c r="AEW27" s="11"/>
+      <c r="AEX27" s="11"/>
+      <c r="AEY27" s="11"/>
+      <c r="AEZ27" s="11"/>
+      <c r="AFA27" s="11"/>
+      <c r="AFB27" s="11"/>
+      <c r="AFC27" s="11"/>
+      <c r="AFD27" s="11"/>
+      <c r="AFE27" s="11"/>
+      <c r="AFF27" s="11"/>
+      <c r="AFG27" s="11"/>
+      <c r="AFH27" s="11"/>
+      <c r="AFI27" s="11"/>
+      <c r="AFJ27" s="11"/>
+      <c r="AFK27" s="11"/>
+      <c r="AFL27" s="11"/>
+      <c r="AFM27" s="11"/>
+      <c r="AFN27" s="11"/>
+      <c r="AFO27" s="11"/>
+      <c r="AFP27" s="11"/>
+      <c r="AFQ27" s="11"/>
+      <c r="AFR27" s="11"/>
+      <c r="AFS27" s="11"/>
+      <c r="AFT27" s="11"/>
+      <c r="AFU27" s="11"/>
+      <c r="AFV27" s="11"/>
+      <c r="AFW27" s="11"/>
+      <c r="AFX27" s="11"/>
+      <c r="AFY27" s="11"/>
+      <c r="AFZ27" s="11"/>
+      <c r="AGA27" s="11"/>
+      <c r="AGB27" s="11"/>
+      <c r="AGC27" s="11"/>
+      <c r="AGD27" s="11"/>
+      <c r="AGE27" s="11"/>
+      <c r="AGF27" s="11"/>
+      <c r="AGG27" s="11"/>
+      <c r="AGH27" s="11"/>
+      <c r="AGI27" s="11"/>
+      <c r="AGJ27" s="11"/>
+      <c r="AGK27" s="11"/>
+      <c r="AGL27" s="11"/>
+      <c r="AGM27" s="11"/>
+      <c r="AGN27" s="11"/>
+      <c r="AGO27" s="11"/>
+      <c r="AGP27" s="11"/>
+      <c r="AGQ27" s="11"/>
+      <c r="AGR27" s="11"/>
+      <c r="AGS27" s="11"/>
+      <c r="AGT27" s="11"/>
+      <c r="AGU27" s="11"/>
+      <c r="AGV27" s="11"/>
+      <c r="AGW27" s="11"/>
+      <c r="AGX27" s="11"/>
+      <c r="AGY27" s="11"/>
+      <c r="AGZ27" s="11"/>
+      <c r="AHA27" s="11"/>
+      <c r="AHB27" s="11"/>
+      <c r="AHC27" s="11"/>
+      <c r="AHD27" s="11"/>
+      <c r="AHE27" s="11"/>
+      <c r="AHF27" s="11"/>
+      <c r="AHG27" s="11"/>
+      <c r="AHH27" s="11"/>
+      <c r="AHI27" s="11"/>
+      <c r="AHJ27" s="11"/>
+      <c r="AHK27" s="11"/>
+      <c r="AHL27" s="11"/>
+      <c r="AHM27" s="11"/>
+      <c r="AHN27" s="11"/>
+      <c r="AHO27" s="11"/>
+      <c r="AHP27" s="11"/>
+      <c r="AHQ27" s="11"/>
+      <c r="AHR27" s="11"/>
+      <c r="AHS27" s="11"/>
+      <c r="AHT27" s="11"/>
+      <c r="AHU27" s="11"/>
+      <c r="AHV27" s="11"/>
+      <c r="AHW27" s="11"/>
+      <c r="AHX27" s="11"/>
+      <c r="AHY27" s="11"/>
+      <c r="AHZ27" s="11"/>
+      <c r="AIA27" s="11"/>
+      <c r="AIB27" s="11"/>
+      <c r="AIC27" s="11"/>
+      <c r="AID27" s="11"/>
+      <c r="AIE27" s="11"/>
+      <c r="AIF27" s="11"/>
+      <c r="AIG27" s="11"/>
+      <c r="AIH27" s="11"/>
+      <c r="AII27" s="11"/>
+      <c r="AIJ27" s="11"/>
+      <c r="AIK27" s="11"/>
+      <c r="AIL27" s="11"/>
+      <c r="AIM27" s="11"/>
+      <c r="AIN27" s="11"/>
+      <c r="AIO27" s="11"/>
+      <c r="AIP27" s="11"/>
+      <c r="AIQ27" s="11"/>
+      <c r="AIR27" s="11"/>
+      <c r="AIS27" s="11"/>
+      <c r="AIT27" s="11"/>
+      <c r="AIU27" s="11"/>
+      <c r="AIV27" s="11"/>
+      <c r="AIW27" s="11"/>
+      <c r="AIX27" s="11"/>
+      <c r="AIY27" s="11"/>
+      <c r="AIZ27" s="11"/>
+      <c r="AJA27" s="11"/>
+      <c r="AJB27" s="11"/>
+      <c r="AJC27" s="11"/>
+      <c r="AJD27" s="11"/>
+      <c r="AJE27" s="11"/>
+      <c r="AJF27" s="11"/>
+      <c r="AJG27" s="11"/>
+      <c r="AJH27" s="11"/>
+      <c r="AJI27" s="11"/>
+      <c r="AJJ27" s="11"/>
+      <c r="AJK27" s="11"/>
+      <c r="AJL27" s="11"/>
+      <c r="AJM27" s="11"/>
+      <c r="AJN27" s="11"/>
+      <c r="AJO27" s="11"/>
+      <c r="AJP27" s="11"/>
+      <c r="AJQ27" s="11"/>
+      <c r="AJR27" s="11"/>
+      <c r="AJS27" s="11"/>
+      <c r="AJT27" s="11"/>
+      <c r="AJU27" s="11"/>
+      <c r="AJV27" s="11"/>
+      <c r="AJW27" s="11"/>
+      <c r="AJX27" s="11"/>
+      <c r="AJY27" s="11"/>
+      <c r="AJZ27" s="11"/>
+      <c r="AKA27" s="11"/>
+      <c r="AKB27" s="11"/>
+      <c r="AKC27" s="11"/>
+      <c r="AKD27" s="11"/>
+      <c r="AKE27" s="11"/>
+      <c r="AKF27" s="11"/>
+      <c r="AKG27" s="11"/>
+      <c r="AKH27" s="11"/>
+      <c r="AKI27" s="11"/>
+      <c r="AKJ27" s="11"/>
+      <c r="AKK27" s="11"/>
+      <c r="AKL27" s="11"/>
+      <c r="AKM27" s="11"/>
+      <c r="AKN27" s="11"/>
+      <c r="AKO27" s="11"/>
+      <c r="AKP27" s="11"/>
+      <c r="AKQ27" s="11"/>
+      <c r="AKR27" s="11"/>
+      <c r="AKS27" s="11"/>
+      <c r="AKT27" s="11"/>
+      <c r="AKU27" s="11"/>
+      <c r="AKV27" s="11"/>
+      <c r="AKW27" s="11"/>
+      <c r="AKX27" s="11"/>
+      <c r="AKY27" s="11"/>
+      <c r="AKZ27" s="11"/>
+      <c r="ALA27" s="11"/>
+      <c r="ALB27" s="11"/>
+      <c r="ALC27" s="11"/>
+      <c r="ALD27" s="11"/>
+      <c r="ALE27" s="11"/>
+      <c r="ALF27" s="11"/>
+      <c r="ALG27" s="11"/>
+      <c r="ALH27" s="11"/>
+      <c r="ALI27" s="11"/>
+      <c r="ALJ27" s="11"/>
+      <c r="ALK27" s="11"/>
+      <c r="ALL27" s="11"/>
+      <c r="ALM27" s="11"/>
+      <c r="ALN27" s="11"/>
+      <c r="ALO27" s="11"/>
+      <c r="ALP27" s="11"/>
+      <c r="ALQ27" s="11"/>
+      <c r="ALR27" s="11"/>
+      <c r="ALS27" s="11"/>
+      <c r="ALT27" s="11"/>
+      <c r="ALU27" s="11"/>
+      <c r="ALV27" s="11"/>
+      <c r="ALW27" s="11"/>
+      <c r="ALX27" s="11"/>
+      <c r="ALY27" s="11"/>
+      <c r="ALZ27" s="11"/>
+      <c r="AMA27" s="11"/>
+      <c r="AMB27" s="11"/>
+      <c r="AMC27" s="11"/>
+      <c r="AMD27" s="11"/>
+      <c r="AME27" s="11"/>
+      <c r="AMF27" s="11"/>
+      <c r="AMG27" s="11"/>
+      <c r="AMH27" s="11"/>
+      <c r="AMI27" s="11"/>
+      <c r="AMJ27" s="11"/>
+      <c r="AMK27" s="11"/>
     </row>
-    <row r="28" spans="1:1025">
+    <row r="28" spans="1:1025" ht="18" customHeight="1">
       <c r="A28" s="13"/>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" spans="1:1025">
       <c r="A29" s="13"/>
@@ -21650,6 +22708,9 @@
     <row r="79" spans="1:1">
       <c r="A79" s="13"/>
     </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>

--- a/Team_3_UCID_Itteration2Update.xlsx
+++ b/Team_3_UCID_Itteration2Update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hediemoradi/Repos/SE-1-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7418BBB2-FFF3-D44D-8D4D-FCDA34990FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB9175-BE6A-E848-8ED8-B8DC795F230E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="1000" windowWidth="13440" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5180" yWindow="480" windowWidth="23460" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,15 +522,6 @@
                            </t>
   </si>
   <si>
-    <t xml:space="preserve">
-Card Summary:
-Name On Card 
-Card Number 
-CVV
-Expiration date
-</t>
-  </si>
-  <si>
     <t>Add/ Modify Card Information</t>
   </si>
   <si>
@@ -677,6 +668,15 @@
   </si>
   <si>
     <t>This fuction provides the user to modify the assigned vehicle to the operator. The manager can see the list of availible vehicles from the drop down menue (sorted by vehcile id (ASC)). After the update is done the system will display a success toast message to the user and goes to view operator screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Card Summary:
+Card Number 
+CVV
+Expiration date
+Cart type
+</t>
   </si>
 </sst>
 </file>
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" zoomScale="84" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="31" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
@@ -1539,7 +1539,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" s="51" customFormat="1" ht="48">
+    <row r="2" spans="1:1025" s="51" customFormat="1" ht="24">
       <c r="A2" s="52"/>
       <c r="B2" s="53" t="s">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>2.1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>13</v>
@@ -2727,7 +2727,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G8" s="32" t="s">
         <v>74</v>
@@ -6925,7 +6925,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>67</v>
@@ -7956,7 +7956,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="45" t="s">
         <v>29</v>
@@ -7965,7 +7965,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>25</v>
@@ -7974,7 +7974,7 @@
         <v>66</v>
       </c>
       <c r="H14" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -9017,7 +9017,7 @@
         <v>70</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -11085,7 +11085,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>26</v>
@@ -11103,7 +11103,7 @@
         <v>95</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -12128,7 +12128,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>26</v>
@@ -12140,13 +12140,13 @@
         <v>72</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -13168,7 +13168,7 @@
     </row>
     <row r="19" spans="1:1025" s="9" customFormat="1" ht="76">
       <c r="A19" s="13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>27</v>
@@ -13180,16 +13180,16 @@
         <v>39</v>
       </c>
       <c r="E19" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="29" t="s">
-        <v>124</v>
-      </c>
       <c r="G19" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -14211,7 +14211,7 @@
     </row>
     <row r="20" spans="1:1025" s="9" customFormat="1" ht="76">
       <c r="A20" s="13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>28</v>
@@ -14223,16 +14223,16 @@
         <v>39</v>
       </c>
       <c r="E20" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>126</v>
-      </c>
       <c r="G20" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -15257,7 +15257,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>26</v>
@@ -15266,16 +15266,16 @@
         <v>39</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -16297,7 +16297,7 @@
     </row>
     <row r="22" spans="1:1025" s="9" customFormat="1" ht="133">
       <c r="A22" s="13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>80</v>
@@ -16312,13 +16312,13 @@
         <v>25</v>
       </c>
       <c r="F22" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="H22" s="39" t="s">
         <v>120</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>121</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -17339,27 +17339,29 @@
       <c r="AMK22" s="8"/>
     </row>
     <row r="23" spans="1:1025" s="9" customFormat="1" ht="95">
-      <c r="A23" s="13"/>
+      <c r="A23" s="13">
+        <v>20</v>
+      </c>
       <c r="B23" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="46" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="32" t="s">
+      <c r="H23" s="39" t="s">
         <v>143</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>144</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -18381,7 +18383,7 @@
     </row>
     <row r="24" spans="1:1025" s="9" customFormat="1" ht="76">
       <c r="A24" s="13">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>97</v>
@@ -19424,7 +19426,7 @@
     </row>
     <row r="25" spans="1:1025" s="9" customFormat="1" ht="76">
       <c r="A25" s="13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>96</v>
@@ -20467,7 +20469,7 @@
     </row>
     <row r="26" spans="1:1025" s="12" customFormat="1" ht="152">
       <c r="A26" s="13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>79</v>
@@ -21510,7 +21512,7 @@
     </row>
     <row r="27" spans="1:1025" s="12" customFormat="1" ht="114">
       <c r="A27" s="13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>81</v>
